--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lloyd/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\wc2018\input\r16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14700" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,16 +25,16 @@
     <definedName name="T">T!$1:$1048576</definedName>
     <definedName name="teams">Settings!$I$17:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -7791,16 +7791,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode=";;;"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode=";;;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7814,7 +7814,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7833,7 +7833,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -7870,7 +7870,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7883,7 +7883,7 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -7906,14 +7906,14 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -7929,6 +7929,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -8918,7 +8925,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8957,7 +8964,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -8981,7 +8988,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -9085,7 +9092,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -9101,7 +9108,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -9129,35 +9136,35 @@
       <alignment horizontal="right" vertical="center" indent="3" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -9312,91 +9319,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -9479,11 +9402,95 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="메모" xfId="2" builtinId="10"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="100">
     <dxf>
@@ -10365,7 +10372,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782D1F7B-CF0A-41E6-9288-EB4175BF7539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782D1F7B-CF0A-41E6-9288-EB4175BF7539}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10415,7 +10422,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A074EA50-1E57-40E6-851F-CA0EBD5346A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A074EA50-1E57-40E6-851F-CA0EBD5346A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10465,7 +10472,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F020D312-7BC3-4FBD-AB9E-A9719935489C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F020D312-7BC3-4FBD-AB9E-A9719935489C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10515,7 +10522,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF0393A-621D-42D6-9296-5F6C72936D05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF0393A-621D-42D6-9296-5F6C72936D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10565,7 +10572,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FF5326-1E09-47F7-8728-D0C1EDCDD414}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FF5326-1E09-47F7-8728-D0C1EDCDD414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10615,7 +10622,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26A5583-6F72-424C-9841-654CCA231C94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26A5583-6F72-424C-9841-654CCA231C94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10665,7 +10672,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544404A8-C949-4303-B512-2DD6D2E58DF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544404A8-C949-4303-B512-2DD6D2E58DF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10715,7 +10722,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD67162D-EC15-4017-A67B-0BFB58ADA516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD67162D-EC15-4017-A67B-0BFB58ADA516}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10765,7 +10772,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E350EA3-E56D-44C1-821A-98392C4744FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E350EA3-E56D-44C1-821A-98392C4744FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10815,7 +10822,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9DDC49-9DD8-43CB-9687-395B464F3433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C9DDC49-9DD8-43CB-9687-395B464F3433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10865,7 +10872,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94574D24-6927-4705-B0D1-CF432FF5A178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94574D24-6927-4705-B0D1-CF432FF5A178}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10915,7 +10922,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907F9C8A-37F1-41EA-830E-5B6DA553A628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907F9C8A-37F1-41EA-830E-5B6DA553A628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10965,7 +10972,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B758F92B-13BF-4E34-BBDF-057A37F5A6D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B758F92B-13BF-4E34-BBDF-057A37F5A6D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11015,7 +11022,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7C7E3F-C397-46B4-80E5-E01A13897BE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C7C7E3F-C397-46B4-80E5-E01A13897BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11065,7 +11072,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8A180D-4650-4A37-BFAB-CE482E9729D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8A180D-4650-4A37-BFAB-CE482E9729D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11115,7 +11122,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEF2871-1DC4-467D-88D6-19312A379FCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEF2871-1DC4-467D-88D6-19312A379FCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11165,7 +11172,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4D3EF1-7C37-484B-BF7F-7419829506E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4D3EF1-7C37-484B-BF7F-7419829506E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11215,7 +11222,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F427A27E-B507-49F5-B9FD-8022163B2682}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F427A27E-B507-49F5-B9FD-8022163B2682}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11265,7 +11272,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469088DB-5DF4-4A2B-B7C2-9A55EED56FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469088DB-5DF4-4A2B-B7C2-9A55EED56FFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11315,7 +11322,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430DB9D2-C059-44FC-912C-20B8AF11987A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430DB9D2-C059-44FC-912C-20B8AF11987A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11365,7 +11372,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BA7981-FAB6-48F3-9D3C-1FFF5BAE22F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BA7981-FAB6-48F3-9D3C-1FFF5BAE22F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11415,7 +11422,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8911F8B-EFB5-4EAF-9BCF-52B74B176C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8911F8B-EFB5-4EAF-9BCF-52B74B176C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11465,7 +11472,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AE9F33-B65B-479A-B4AC-45E521F3192B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AE9F33-B65B-479A-B4AC-45E521F3192B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11515,7 +11522,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E03EFE6-6F0A-42E4-9B18-4EE68916BFBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E03EFE6-6F0A-42E4-9B18-4EE68916BFBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11565,7 +11572,7 @@
         <xdr:cNvPr id="33" name="Picture 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E832B8-E97E-4A62-95AC-8B1007A62204}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E832B8-E97E-4A62-95AC-8B1007A62204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11615,7 +11622,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3E60C5-3004-45D9-86DC-AEAECCDB9D78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3E60C5-3004-45D9-86DC-AEAECCDB9D78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11665,7 +11672,7 @@
         <xdr:cNvPr id="39" name="Picture 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96520393-3B3A-4783-989C-AC1B55C8EE1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96520393-3B3A-4783-989C-AC1B55C8EE1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11715,7 +11722,7 @@
         <xdr:cNvPr id="37" name="Picture 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F25E43-2711-437F-BA14-DE451A8343E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86F25E43-2711-437F-BA14-DE451A8343E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11765,7 +11772,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8E43E5-63FB-435A-AF15-FFDA7DBD257A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8E43E5-63FB-435A-AF15-FFDA7DBD257A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11815,7 +11822,7 @@
         <xdr:cNvPr id="43" name="Picture 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8135ECA4-6926-4D9E-84A4-8CFF47F974BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8135ECA4-6926-4D9E-84A4-8CFF47F974BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11865,7 +11872,7 @@
         <xdr:cNvPr id="41" name="Picture 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5F122D-CEDE-4275-9F1E-149FFDF1E388}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5F122D-CEDE-4275-9F1E-149FFDF1E388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11915,7 +11922,7 @@
         <xdr:cNvPr id="46" name="Picture 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD366AD-6D2A-47C3-8BAD-A5817B6E4052}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD366AD-6D2A-47C3-8BAD-A5817B6E4052}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11965,7 +11972,7 @@
         <xdr:cNvPr id="47" name="Picture 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB6D2A6-1AF7-4F21-8948-55E6E89EDD4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB6D2A6-1AF7-4F21-8948-55E6E89EDD4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12015,7 +12022,7 @@
         <xdr:cNvPr id="45" name="Picture 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268C9EB8-59FE-4E14-B624-F9E0FA8C9A4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268C9EB8-59FE-4E14-B624-F9E0FA8C9A4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12065,7 +12072,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2E3A4A-21B4-418E-82B8-13DA91685B31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2E3A4A-21B4-418E-82B8-13DA91685B31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12115,7 +12122,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A774D11C-BCC9-4626-A38C-43CDFA0C61A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A774D11C-BCC9-4626-A38C-43CDFA0C61A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12165,7 +12172,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3091D98F-39A3-4DED-AB86-11022281925E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3091D98F-39A3-4DED-AB86-11022281925E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12215,7 +12222,7 @@
         <xdr:cNvPr id="54" name="Picture 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D46A7CE-446D-40BD-BAAF-E08CC2916810}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D46A7CE-446D-40BD-BAAF-E08CC2916810}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12265,7 +12272,7 @@
         <xdr:cNvPr id="55" name="Picture 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE24F44-6FF3-459D-B7B6-61AD5F61515D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE24F44-6FF3-459D-B7B6-61AD5F61515D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12315,7 +12322,7 @@
         <xdr:cNvPr id="53" name="Picture 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFF4CDD-6468-4AC0-9266-9BCA9066048C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFF4CDD-6468-4AC0-9266-9BCA9066048C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12365,7 +12372,7 @@
         <xdr:cNvPr id="58" name="Picture 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF89DD13-877B-4526-9931-DC1331EB1627}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF89DD13-877B-4526-9931-DC1331EB1627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12415,7 +12422,7 @@
         <xdr:cNvPr id="59" name="Picture 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6BBFBB-3A0D-4F81-8B86-62D335942670}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6BBFBB-3A0D-4F81-8B86-62D335942670}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12465,7 +12472,7 @@
         <xdr:cNvPr id="57" name="Picture 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AD2DE9-AEBE-4886-BA39-2098C7ACD278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AD2DE9-AEBE-4886-BA39-2098C7ACD278}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12515,7 +12522,7 @@
         <xdr:cNvPr id="62" name="Picture 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219D88A8-51A3-43CF-91FA-D1C03D6BFC4C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219D88A8-51A3-43CF-91FA-D1C03D6BFC4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12565,7 +12572,7 @@
         <xdr:cNvPr id="63" name="Picture 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C863DD3-89DA-40AE-955B-A207025BBCB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C863DD3-89DA-40AE-955B-A207025BBCB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12615,7 +12622,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6532FDD9-9E8C-4CED-BEA1-3588AAAFCD05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6532FDD9-9E8C-4CED-BEA1-3588AAAFCD05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12665,7 +12672,7 @@
         <xdr:cNvPr id="66" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2A188B-6FFD-484C-B377-17AB21746F5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2A188B-6FFD-484C-B377-17AB21746F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12715,7 +12722,7 @@
         <xdr:cNvPr id="67" name="Picture 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0969B6B-28C3-4681-B41E-70E963636C23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0969B6B-28C3-4681-B41E-70E963636C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12765,7 +12772,7 @@
         <xdr:cNvPr id="65" name="Picture 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA269DB6-46C6-4218-B3C4-C8B01819E87D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA269DB6-46C6-4218-B3C4-C8B01819E87D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12815,7 +12822,7 @@
         <xdr:cNvPr id="70" name="Picture 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B9BA3E-DF82-4DE7-8342-8154C9F1C622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B9BA3E-DF82-4DE7-8342-8154C9F1C622}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12865,7 +12872,7 @@
         <xdr:cNvPr id="71" name="Picture 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AD693E-AE03-477C-A59D-DA119AD03354}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89AD693E-AE03-477C-A59D-DA119AD03354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12915,7 +12922,7 @@
         <xdr:cNvPr id="69" name="Picture 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F82DCD-F711-4055-929C-9039D8C2EE9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F82DCD-F711-4055-929C-9039D8C2EE9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12965,7 +12972,7 @@
         <xdr:cNvPr id="74" name="Picture 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B045A3C6-F8DF-4129-9198-8F3FD7EFBE62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B045A3C6-F8DF-4129-9198-8F3FD7EFBE62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13015,7 +13022,7 @@
         <xdr:cNvPr id="75" name="Picture 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9055DF6-EFE3-4745-B03C-E512B8030D29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9055DF6-EFE3-4745-B03C-E512B8030D29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13065,7 +13072,7 @@
         <xdr:cNvPr id="73" name="Picture 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1E8E5D-9CD8-483B-A965-63B4B8DB4221}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1E8E5D-9CD8-483B-A965-63B4B8DB4221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13115,7 +13122,7 @@
         <xdr:cNvPr id="78" name="Picture 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1ED872F-CCCE-40D5-BF89-D47AB08A744C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1ED872F-CCCE-40D5-BF89-D47AB08A744C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13165,7 +13172,7 @@
         <xdr:cNvPr id="79" name="Picture 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2FB5DC-9F67-45CC-8D0B-5D9411E6E1E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA2FB5DC-9F67-45CC-8D0B-5D9411E6E1E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13215,7 +13222,7 @@
         <xdr:cNvPr id="77" name="Picture 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9829FD-F645-48AC-8CC3-79FCC46F3623}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F9829FD-F645-48AC-8CC3-79FCC46F3623}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13265,7 +13272,7 @@
         <xdr:cNvPr id="82" name="Picture 81">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F63FE7-6012-4746-9787-F455E4CC4AD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F63FE7-6012-4746-9787-F455E4CC4AD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13315,7 +13322,7 @@
         <xdr:cNvPr id="83" name="Picture 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2334520F-8F71-49F5-91BB-97D5AFDE78F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2334520F-8F71-49F5-91BB-97D5AFDE78F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13365,7 +13372,7 @@
         <xdr:cNvPr id="81" name="Picture 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72B181-A6EA-4411-85A3-175E55FA1136}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72B181-A6EA-4411-85A3-175E55FA1136}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13415,7 +13422,7 @@
         <xdr:cNvPr id="86" name="Picture 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E829F40-6E2B-4B38-8263-9E03252F0DB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E829F40-6E2B-4B38-8263-9E03252F0DB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13465,7 +13472,7 @@
         <xdr:cNvPr id="87" name="Picture 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9A14DD-2CA3-481B-8F3E-99E6EA13B1A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9A14DD-2CA3-481B-8F3E-99E6EA13B1A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13515,7 +13522,7 @@
         <xdr:cNvPr id="85" name="Picture 84">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5513EF9-D185-415D-BA71-860A6E90A43B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5513EF9-D185-415D-BA71-860A6E90A43B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13565,7 +13572,7 @@
         <xdr:cNvPr id="90" name="Picture 89">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1643AE2-2F85-47C0-B0A1-56EC1E143BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1643AE2-2F85-47C0-B0A1-56EC1E143BDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13615,7 +13622,7 @@
         <xdr:cNvPr id="91" name="Picture 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7944DA7-71BA-4D41-BE00-6F1BB2CC03F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7944DA7-71BA-4D41-BE00-6F1BB2CC03F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13665,7 +13672,7 @@
         <xdr:cNvPr id="89" name="Picture 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972BBEE1-94C8-4032-8C1E-43F2698B3B76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972BBEE1-94C8-4032-8C1E-43F2698B3B76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13715,7 +13722,7 @@
         <xdr:cNvPr id="94" name="Picture 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8954795A-F65C-4D16-958F-24EBDC185FA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8954795A-F65C-4D16-958F-24EBDC185FA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13765,7 +13772,7 @@
         <xdr:cNvPr id="95" name="Picture 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E6624D-C6CE-4279-A0EA-880F00DD7674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E6624D-C6CE-4279-A0EA-880F00DD7674}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13815,7 +13822,7 @@
         <xdr:cNvPr id="93" name="Picture 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED8E5D1-9E01-4BB1-AE3A-8F90C342B49A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED8E5D1-9E01-4BB1-AE3A-8F90C342B49A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13865,7 +13872,7 @@
         <xdr:cNvPr id="100" name="Picture 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41B3F25-ED4E-4862-8283-59F4DD2ACB4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41B3F25-ED4E-4862-8283-59F4DD2ACB4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13915,7 +13922,7 @@
         <xdr:cNvPr id="101" name="Picture 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8305E90C-3ED9-4559-BB6B-4BF7A3A20F5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8305E90C-3ED9-4559-BB6B-4BF7A3A20F5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13965,7 +13972,7 @@
         <xdr:cNvPr id="97" name="Picture 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D5085-AC69-4CED-9A1F-B98E49A1A139}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761D5085-AC69-4CED-9A1F-B98E49A1A139}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14015,7 +14022,7 @@
         <xdr:cNvPr id="102" name="Picture 101">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783D46FA-D932-4677-88DE-22CF7729D355}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783D46FA-D932-4677-88DE-22CF7729D355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14065,7 +14072,7 @@
         <xdr:cNvPr id="103" name="Picture 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D835A9-995B-4251-B374-7B0B6EEF235A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D835A9-995B-4251-B374-7B0B6EEF235A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14115,7 +14122,7 @@
         <xdr:cNvPr id="105" name="Picture 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AE5A2F-6EE2-4619-B9F1-05C5E8CA3A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AE5A2F-6EE2-4619-B9F1-05C5E8CA3A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14165,7 +14172,7 @@
         <xdr:cNvPr id="106" name="Picture 105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2D6FCF-9DD4-489B-A17D-802793743362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2D6FCF-9DD4-489B-A17D-802793743362}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14215,7 +14222,7 @@
         <xdr:cNvPr id="107" name="Picture 106">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C059E41-AD5E-41B7-BD6A-26B3047A30FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C059E41-AD5E-41B7-BD6A-26B3047A30FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14265,7 +14272,7 @@
         <xdr:cNvPr id="109" name="Picture 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1C56CC-E6F1-4BAA-BA4D-5D5606B712F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1C56CC-E6F1-4BAA-BA4D-5D5606B712F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14315,7 +14322,7 @@
         <xdr:cNvPr id="110" name="Picture 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9CDE71-448F-4B48-8B86-03EAE9CD3FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E9CDE71-448F-4B48-8B86-03EAE9CD3FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14365,7 +14372,7 @@
         <xdr:cNvPr id="111" name="Picture 110">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B82CD8-BF66-4353-8124-2202FB70422F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B82CD8-BF66-4353-8124-2202FB70422F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14415,7 +14422,7 @@
         <xdr:cNvPr id="113" name="Picture 112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03236BD3-06FA-44C5-B296-D2749AA0D2F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03236BD3-06FA-44C5-B296-D2749AA0D2F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14465,7 +14472,7 @@
         <xdr:cNvPr id="114" name="Picture 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F07DDD-DA56-44A9-BFF5-25506DA09DEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F07DDD-DA56-44A9-BFF5-25506DA09DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14515,7 +14522,7 @@
         <xdr:cNvPr id="115" name="Picture 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D075DCC8-DF72-4DA8-8E05-A7E4524E641B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D075DCC8-DF72-4DA8-8E05-A7E4524E641B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14565,7 +14572,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386EDEDB-C790-4B9C-B601-30D65C127308}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386EDEDB-C790-4B9C-B601-30D65C127308}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14615,7 +14622,7 @@
         <xdr:cNvPr id="88" name="Picture 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC212AEE-0C98-44DE-A5C2-921C49961C9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC212AEE-0C98-44DE-A5C2-921C49961C9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14665,7 +14672,7 @@
         <xdr:cNvPr id="92" name="Picture 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118DACD7-BAFA-4CC4-9694-CFD014FE8AE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118DACD7-BAFA-4CC4-9694-CFD014FE8AE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14715,7 +14722,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204C9863-1D5F-4EF0-88D3-D28A0BD9643E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{204C9863-1D5F-4EF0-88D3-D28A0BD9643E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14765,7 +14772,7 @@
         <xdr:cNvPr id="96" name="Picture 95">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA29762E-6A19-4AF6-B954-D683CEE32E22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA29762E-6A19-4AF6-B954-D683CEE32E22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14815,7 +14822,7 @@
         <xdr:cNvPr id="98" name="Picture 97">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D16448A-B33C-4535-8A78-36B0E518B16A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D16448A-B33C-4535-8A78-36B0E518B16A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14865,7 +14872,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FBDACA-08EA-4786-B95D-5EA28C84BFB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FBDACA-08EA-4786-B95D-5EA28C84BFB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14915,7 +14922,7 @@
         <xdr:cNvPr id="99" name="Picture 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC79F0CD-E530-4D2C-9A0E-6EFD551E0745}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC79F0CD-E530-4D2C-9A0E-6EFD551E0745}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14965,7 +14972,7 @@
         <xdr:cNvPr id="104" name="Picture 103">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A06AE1-0FFC-4194-945D-A65E9964C0A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A06AE1-0FFC-4194-945D-A65E9964C0A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15015,7 +15022,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E6438-16FE-436E-B3C5-23BC6D391157}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7E6438-16FE-436E-B3C5-23BC6D391157}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15065,7 +15072,7 @@
         <xdr:cNvPr id="108" name="Picture 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E7E415-E395-4BC5-A843-328CE5C012D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E7E415-E395-4BC5-A843-328CE5C012D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15115,7 +15122,7 @@
         <xdr:cNvPr id="112" name="Picture 111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40246C0-BC20-4BC1-9884-A07D67C7AB97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40246C0-BC20-4BC1-9884-A07D67C7AB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15456,12 +15463,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -15595,7 +15602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>2074</v>
       </c>
@@ -15729,7 +15736,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>44</v>
       </c>
@@ -15863,7 +15870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>86</v>
       </c>
@@ -15997,7 +16004,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
         <v>129</v>
       </c>
@@ -16131,7 +16138,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>170</v>
       </c>
@@ -16265,7 +16272,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>209</v>
       </c>
@@ -16399,7 +16406,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
         <v>251</v>
       </c>
@@ -16533,7 +16540,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>276</v>
       </c>
@@ -16667,7 +16674,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>306</v>
       </c>
@@ -16801,7 +16808,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>337</v>
       </c>
@@ -16935,7 +16942,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>361</v>
       </c>
@@ -17069,7 +17076,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
         <v>307</v>
       </c>
@@ -17203,7 +17210,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="81" t="s">
         <v>401</v>
       </c>
@@ -17337,7 +17344,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>441</v>
       </c>
@@ -17471,7 +17478,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>470</v>
       </c>
@@ -17605,7 +17612,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
         <v>501</v>
       </c>
@@ -17739,7 +17746,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
         <v>533</v>
       </c>
@@ -17873,7 +17880,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="81" t="s">
         <v>567</v>
       </c>
@@ -18007,7 +18014,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
         <v>601</v>
       </c>
@@ -18141,7 +18148,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="81" t="s">
         <v>635</v>
       </c>
@@ -18275,7 +18282,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>668</v>
       </c>
@@ -18409,7 +18416,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
         <v>700</v>
       </c>
@@ -18543,7 +18550,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>726</v>
       </c>
@@ -18677,7 +18684,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="81" t="s">
         <v>534</v>
       </c>
@@ -18811,7 +18818,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="81" t="s">
         <v>770</v>
       </c>
@@ -18945,7 +18952,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="81" t="s">
         <v>794</v>
       </c>
@@ -19079,7 +19086,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
         <v>819</v>
       </c>
@@ -19213,7 +19220,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
         <v>848</v>
       </c>
@@ -19347,7 +19354,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="81" t="s">
         <v>876</v>
       </c>
@@ -19481,7 +19488,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="81" t="s">
         <v>903</v>
       </c>
@@ -19615,7 +19622,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="81" t="s">
         <v>928</v>
       </c>
@@ -19749,7 +19756,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="81" t="s">
         <v>952</v>
       </c>
@@ -19883,7 +19890,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="81" t="s">
         <v>977</v>
       </c>
@@ -20017,7 +20024,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>1004</v>
       </c>
@@ -20151,7 +20158,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="81" t="s">
         <v>1039</v>
       </c>
@@ -20285,7 +20292,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A39" s="81" t="s">
         <v>1075</v>
       </c>
@@ -20419,7 +20426,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
         <v>1100</v>
       </c>
@@ -20553,7 +20560,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>1120</v>
       </c>
@@ -20687,7 +20694,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A42" s="81" t="s">
         <v>1151</v>
       </c>
@@ -20821,7 +20828,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" s="81" t="s">
         <v>1172</v>
       </c>
@@ -20955,7 +20962,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A44" s="81" t="s">
         <v>1195</v>
       </c>
@@ -21089,7 +21096,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>2171</v>
       </c>
@@ -21223,7 +21230,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A46" s="81" t="s">
         <v>1232</v>
       </c>
@@ -21357,7 +21364,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
         <v>2167</v>
       </c>
@@ -21491,7 +21498,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A48" s="81" t="s">
         <v>2164</v>
       </c>
@@ -21625,7 +21632,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="81" t="s">
         <v>1263</v>
       </c>
@@ -21759,7 +21766,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="81" t="s">
         <v>1294</v>
       </c>
@@ -21893,7 +21900,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
         <v>1329</v>
       </c>
@@ -22027,7 +22034,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
         <v>1359</v>
       </c>
@@ -22161,7 +22168,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
         <v>2165</v>
       </c>
@@ -22295,7 +22302,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
         <v>2168</v>
       </c>
@@ -22429,7 +22436,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
         <v>1385</v>
       </c>
@@ -22563,7 +22570,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
         <v>1407</v>
       </c>
@@ -22697,7 +22704,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
         <v>2166</v>
       </c>
@@ -22831,7 +22838,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="81" t="s">
         <v>2172</v>
       </c>
@@ -22965,7 +22972,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="81" t="s">
         <v>2170</v>
       </c>
@@ -23099,7 +23106,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="81" t="s">
         <v>2162</v>
       </c>
@@ -23233,7 +23240,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="81" t="s">
         <v>1436</v>
       </c>
@@ -23367,7 +23374,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="81" t="s">
         <v>1455</v>
       </c>
@@ -23501,7 +23508,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="81" t="s">
         <v>1485</v>
       </c>
@@ -23635,7 +23642,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>2163</v>
       </c>
@@ -23769,7 +23776,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="81" t="s">
         <v>1514</v>
       </c>
@@ -23903,7 +23910,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="81" t="s">
         <v>1539</v>
       </c>
@@ -24037,7 +24044,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="81" t="s">
         <v>1575</v>
       </c>
@@ -24171,7 +24178,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A68" s="81" t="s">
         <v>2169</v>
       </c>
@@ -24305,7 +24312,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A69" s="81" t="s">
         <v>2161</v>
       </c>
@@ -24439,7 +24446,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A70" s="81" t="s">
         <v>1612</v>
       </c>
@@ -24573,7 +24580,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A71" s="81" t="s">
         <v>1618</v>
       </c>
@@ -24707,7 +24714,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A72" s="81" t="s">
         <v>1624</v>
       </c>
@@ -24841,7 +24848,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A73" s="81" t="s">
         <v>1630</v>
       </c>
@@ -24975,7 +24982,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A74" s="81" t="s">
         <v>1636</v>
       </c>
@@ -25109,7 +25116,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A75" s="81" t="s">
         <v>1644</v>
       </c>
@@ -25243,7 +25250,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A76" s="81" t="s">
         <v>1652</v>
       </c>
@@ -25377,7 +25384,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A77" s="81" t="s">
         <v>1659</v>
       </c>
@@ -25511,7 +25518,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A78" s="81" t="s">
         <v>1666</v>
       </c>
@@ -25645,7 +25652,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A79" s="81" t="s">
         <v>1673</v>
       </c>
@@ -25779,7 +25786,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A80" s="81" t="s">
         <v>1680</v>
       </c>
@@ -25913,7 +25920,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A81" s="81" t="s">
         <v>1687</v>
       </c>
@@ -26047,7 +26054,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A82" s="81" t="s">
         <v>1694</v>
       </c>
@@ -26181,7 +26188,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A83" s="81" t="s">
         <v>1702</v>
       </c>
@@ -26315,7 +26322,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A84" s="81" t="s">
         <v>1710</v>
       </c>
@@ -26449,7 +26456,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A85" s="81" t="s">
         <v>1717</v>
       </c>
@@ -26583,7 +26590,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A86" s="81" t="s">
         <v>1723</v>
       </c>
@@ -26717,7 +26724,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A87" s="81" t="s">
         <v>1743</v>
       </c>
@@ -26851,7 +26858,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A88" s="81" t="s">
         <v>1763</v>
       </c>
@@ -26985,7 +26992,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A89" s="81" t="s">
         <v>1783</v>
       </c>
@@ -27119,7 +27126,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A90" s="81" t="s">
         <v>1803</v>
       </c>
@@ -27253,7 +27260,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A91" s="81" t="s">
         <v>1823</v>
       </c>
@@ -27387,7 +27394,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A92" s="81" t="s">
         <v>1843</v>
       </c>
@@ -27521,7 +27528,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A93" s="81" t="s">
         <v>1863</v>
       </c>
@@ -27655,7 +27662,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A94" s="81" t="s">
         <v>1883</v>
       </c>
@@ -27789,7 +27796,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A95" s="81" t="s">
         <v>1903</v>
       </c>
@@ -27923,7 +27930,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A96" s="81" t="s">
         <v>1923</v>
       </c>
@@ -28057,7 +28064,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A97" s="81" t="s">
         <v>1943</v>
       </c>
@@ -28191,7 +28198,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A98" s="81" t="s">
         <v>1963</v>
       </c>
@@ -28325,7 +28332,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A99" s="81" t="s">
         <v>1983</v>
       </c>
@@ -28459,7 +28466,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A100" s="81" t="s">
         <v>1973</v>
       </c>
@@ -28593,7 +28600,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A101" s="81" t="s">
         <v>1993</v>
       </c>
@@ -28727,7 +28734,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A102" s="81" t="s">
         <v>2185</v>
       </c>
@@ -28861,43 +28868,43 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A103" s="82"/>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A104" s="82"/>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A105" s="82"/>
     </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A106" s="82"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A107" s="82"/>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A108" s="82"/>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A109" s="82"/>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A110" s="82"/>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A111" s="82"/>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A112" s="82"/>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" s="82"/>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" s="82"/>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" s="81" t="s">
         <v>2032</v>
       </c>
@@ -29029,6 +29036,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -29042,22 +29050,22 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="11"/>
-    <col min="5" max="5" width="1.1640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="11"/>
+    <col min="1" max="1" width="1.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="11"/>
+    <col min="5" max="5" width="1.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
     <col min="7" max="7" width="27.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="1.1640625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="11"/>
+    <col min="8" max="8" width="2.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="1.125" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="83" t="s">
         <v>2114</v>
       </c>
@@ -29069,7 +29077,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="85"/>
     </row>
-    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="86"/>
       <c r="C3" s="87"/>
       <c r="D3" s="88"/>
@@ -29077,7 +29085,7 @@
       <c r="G3" s="87"/>
       <c r="H3" s="88"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="98" t="s">
         <v>2116</v>
       </c>
@@ -29089,7 +29097,7 @@
       <c r="G4" s="89"/>
       <c r="H4" s="88"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="86"/>
       <c r="C5" s="87"/>
       <c r="D5" s="88"/>
@@ -29101,7 +29109,7 @@
       </c>
       <c r="H5" s="88"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="98" t="s">
         <v>2119</v>
       </c>
@@ -29117,7 +29125,7 @@
       </c>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="86"/>
       <c r="C7" s="87"/>
       <c r="D7" s="88"/>
@@ -29129,7 +29137,7 @@
       </c>
       <c r="H7" s="88"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="98" t="s">
         <v>2124</v>
       </c>
@@ -29145,7 +29153,7 @@
       </c>
       <c r="H8" s="88"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
       <c r="D9" s="88"/>
@@ -29157,7 +29165,7 @@
       </c>
       <c r="H9" s="88"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="98" t="s">
         <v>2130</v>
       </c>
@@ -29169,7 +29177,7 @@
       <c r="G10" s="94"/>
       <c r="H10" s="88"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
       <c r="D11" s="88"/>
@@ -29177,7 +29185,7 @@
       <c r="G11" s="96"/>
       <c r="H11" s="97"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="98" t="s">
         <v>2184</v>
       </c>
@@ -29186,13 +29194,13 @@
       </c>
       <c r="D12" s="88"/>
     </row>
-    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
     </row>
-    <row r="14" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:9" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="99"/>
       <c r="C15" s="100"/>
       <c r="D15" s="101"/>
@@ -29209,7 +29217,7 @@
         <v>Spain</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="86"/>
       <c r="C16" s="102" t="s">
         <v>2129</v>
@@ -29225,7 +29233,7 @@
       <c r="H16" s="108"/>
       <c r="I16" s="108"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="103" t="str">
         <f>VLOOKUP("Germany",T,lang,FALSE)</f>
         <v>Germany</v>
@@ -29241,7 +29249,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="103" t="str">
         <f>VLOOKUP("Brazil",T,lang,FALSE)</f>
         <v>Brazil</v>
@@ -29261,7 +29269,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="103" t="str">
         <f>VLOOKUP("Portugal",T,lang,FALSE)</f>
         <v>Portugal</v>
@@ -29281,7 +29289,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="103" t="str">
         <f>VLOOKUP("Argentina",T,lang,FALSE)</f>
         <v>Argentina</v>
@@ -29301,7 +29309,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="103" t="str">
         <f>VLOOKUP("Belgium",T,lang,FALSE)</f>
         <v>Belgium</v>
@@ -29321,7 +29329,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="103" t="str">
         <f>VLOOKUP("Spain",T,lang,FALSE)</f>
         <v>Spain</v>
@@ -29341,7 +29349,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="103" t="str">
         <f>VLOOKUP("Poland",T,lang,FALSE)</f>
         <v>Poland</v>
@@ -29361,7 +29369,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="103" t="str">
         <f>VLOOKUP("Switzerland",T,lang,FALSE)</f>
         <v>Switzerland</v>
@@ -29381,7 +29389,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="103" t="str">
         <f>VLOOKUP("France",T,lang,FALSE)</f>
         <v>France</v>
@@ -29401,7 +29409,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="103" t="str">
         <f>VLOOKUP("Peru",T,lang,FALSE)</f>
         <v>Peru</v>
@@ -29421,7 +29429,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="103" t="str">
         <f>VLOOKUP("Denmark",T,lang,FALSE)</f>
         <v>Denmark</v>
@@ -29441,7 +29449,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="103" t="str">
         <f>VLOOKUP("Colombia",T,lang,FALSE)</f>
         <v>Colombia</v>
@@ -29461,7 +29469,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="103" t="str">
         <f>VLOOKUP("England",T,lang,FALSE)</f>
         <v>England</v>
@@ -29481,7 +29489,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="103" t="str">
         <f>VLOOKUP("Mexico",T,lang,FALSE)</f>
         <v>Mexico</v>
@@ -29501,7 +29509,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="103" t="str">
         <f>VLOOKUP("Croatia",T,lang,FALSE)</f>
         <v>Croatia</v>
@@ -29521,7 +29529,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="103" t="str">
         <f>VLOOKUP("Sweden",T,lang,FALSE)</f>
         <v>Sweden</v>
@@ -29541,7 +29549,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="103" t="str">
         <f>VLOOKUP("Uruguay",T,lang,FALSE)</f>
         <v>Uruguay</v>
@@ -29561,7 +29569,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="103" t="str">
         <f>VLOOKUP("Iceland",T,lang,FALSE)</f>
         <v>Iceland</v>
@@ -29581,7 +29589,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="103" t="str">
         <f>VLOOKUP("Senegal",T,lang,FALSE)</f>
         <v>Senegal</v>
@@ -29601,7 +29609,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="103" t="str">
         <f>VLOOKUP("Costa Rica",T,lang,FALSE)</f>
         <v>Costa Rica</v>
@@ -29621,7 +29629,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="103" t="str">
         <f>VLOOKUP("Tunisia",T,lang,FALSE)</f>
         <v>Tunisia</v>
@@ -29641,7 +29649,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="103" t="str">
         <f>VLOOKUP("Egypt",T,lang,FALSE)</f>
         <v>Egypt</v>
@@ -29661,7 +29669,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="103" t="str">
         <f>VLOOKUP("Iran",T,lang,FALSE)</f>
         <v>Iran</v>
@@ -29681,7 +29689,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="103" t="str">
         <f>VLOOKUP("Serbia",T,lang,FALSE)</f>
         <v>Serbia</v>
@@ -29701,7 +29709,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="103" t="str">
         <f>VLOOKUP("Australia",T,lang,FALSE)</f>
         <v>Australia</v>
@@ -29721,7 +29729,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="103" t="str">
         <f>VLOOKUP("Morocco",T,lang,FALSE)</f>
         <v>Morocco</v>
@@ -29737,7 +29745,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="103" t="str">
         <f>VLOOKUP("Nigeria",T,lang,FALSE)</f>
         <v>Nigeria</v>
@@ -29757,7 +29765,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="103" t="str">
         <f>VLOOKUP("Panama",T,lang,FALSE)</f>
         <v>Panama</v>
@@ -29777,7 +29785,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="103" t="str">
         <f>VLOOKUP("Japan",T,lang,FALSE)</f>
         <v>Japan</v>
@@ -29797,7 +29805,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="103" t="str">
         <f>VLOOKUP("Korea Republic",T,lang,FALSE)</f>
         <v>Korea Republic</v>
@@ -29817,7 +29825,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="103" t="str">
         <f>VLOOKUP("Saudi Arabia",T,lang,FALSE)</f>
         <v>Saudi Arabia</v>
@@ -29833,7 +29841,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="103" t="str">
         <f>VLOOKUP("Russia",T,lang,FALSE)</f>
         <v>Russia</v>
@@ -29854,7 +29862,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="95"/>
       <c r="C49" s="96"/>
       <c r="D49" s="97"/>
@@ -29864,6 +29872,7 @@
   <sortState ref="I17:I48">
     <sortCondition ref="I17:I48"/>
   </sortState>
+  <phoneticPr fontId="19" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Language" prompt="Use drop-down List" sqref="C4">
       <formula1>lang_list</formula1>
@@ -29888,86 +29897,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="6" customWidth="1"/>
-    <col min="6" max="7" width="4.33203125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="4.375" style="7" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="3.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="14" style="9" customWidth="1"/>
     <col min="11" max="14" width="5.5" style="10" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7.625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="10" customWidth="1"/>
     <col min="17" max="17" width="3.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.5" style="58" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="16" style="65" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="5" style="59" hidden="1" customWidth="1"/>
-    <col min="22" max="25" width="6.1640625" style="58" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" style="59" hidden="1" customWidth="1"/>
+    <col min="22" max="25" width="6.125" style="58" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="4.375" style="59" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="5.5" style="58" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="13.5" style="59" hidden="1" customWidth="1"/>
     <col min="29" max="33" width="5.5" style="58" hidden="1" customWidth="1"/>
     <col min="34" max="36" width="6" style="58" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="5.5" style="58" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="6" style="58" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="7.1640625" style="59" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="7.125" style="59" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="10" style="59" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="15.33203125" style="60" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="4.6640625" style="61" hidden="1" customWidth="1"/>
-    <col min="43" max="46" width="4.6640625" style="62" hidden="1" customWidth="1"/>
-    <col min="47" max="49" width="9.1640625" style="63" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="9.1640625" style="64" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="3.33203125" style="3" customWidth="1"/>
-    <col min="52" max="52" width="19.6640625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="15.375" style="60" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="4.625" style="61" hidden="1" customWidth="1"/>
+    <col min="43" max="46" width="4.625" style="62" hidden="1" customWidth="1"/>
+    <col min="47" max="49" width="9.125" style="63" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="9.125" style="64" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="3.375" style="3" customWidth="1"/>
+    <col min="52" max="52" width="19.625" style="3" customWidth="1"/>
     <col min="53" max="54" width="3" style="3" customWidth="1"/>
     <col min="55" max="56" width="2" style="3" customWidth="1"/>
-    <col min="57" max="57" width="3.33203125" style="3" customWidth="1"/>
-    <col min="58" max="58" width="19.6640625" style="3" customWidth="1"/>
+    <col min="57" max="57" width="3.375" style="3" customWidth="1"/>
+    <col min="58" max="58" width="19.625" style="3" customWidth="1"/>
     <col min="59" max="60" width="3" style="3" customWidth="1"/>
     <col min="61" max="62" width="2" style="3" customWidth="1"/>
-    <col min="63" max="63" width="3.33203125" style="3" customWidth="1"/>
-    <col min="64" max="64" width="19.6640625" style="3" customWidth="1"/>
+    <col min="63" max="63" width="3.375" style="3" customWidth="1"/>
+    <col min="64" max="64" width="19.625" style="3" customWidth="1"/>
     <col min="65" max="66" width="3" style="3" customWidth="1"/>
     <col min="67" max="68" width="2" style="3" customWidth="1"/>
-    <col min="69" max="69" width="3.33203125" style="3" customWidth="1"/>
-    <col min="70" max="70" width="19.6640625" style="3" customWidth="1"/>
+    <col min="69" max="69" width="3.375" style="3" customWidth="1"/>
+    <col min="70" max="70" width="19.625" style="3" customWidth="1"/>
     <col min="71" max="72" width="3" style="3" customWidth="1"/>
-    <col min="73" max="16384" width="8.83203125" style="3"/>
+    <col min="73" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="47" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="str">
+    <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="115" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -29991,7 +30000,7 @@
       <c r="AS1" s="63"/>
       <c r="AT1" s="63"/>
     </row>
-    <row r="2" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S2" s="58"/>
       <c r="T2" s="58"/>
       <c r="U2" s="58"/>
@@ -30015,7 +30024,7 @@
       <c r="AS2" s="63"/>
       <c r="AT2" s="63"/>
     </row>
-    <row r="3" spans="1:72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -30030,11 +30039,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="137" t="str">
+      <c r="O3" s="116" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="137"/>
+      <c r="P3" s="116"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30058,45 +30067,45 @@
       <c r="AS3" s="63"/>
       <c r="AT3" s="63"/>
     </row>
-    <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="138" t="str">
+    <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="117" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="J5" s="144" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="J5" s="123" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
     </row>
-    <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+    <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30160,36 +30169,36 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="130" t="str">
+      <c r="AY6" s="109" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
-      <c r="BE6" s="130" t="str">
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="111"/>
+      <c r="BE6" s="109" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="132"/>
-      <c r="BK6" s="130" t="str">
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BK6" s="109" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="132"/>
-      <c r="BQ6" s="130" t="str">
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="111"/>
+      <c r="BQ6" s="109" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="111"/>
     </row>
-    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1</v>
       </c>
@@ -30251,24 +30260,24 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="135"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
-      <c r="BM7" s="134"/>
-      <c r="BN7" s="135"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="134"/>
-      <c r="BS7" s="134"/>
-      <c r="BT7" s="135"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="113"/>
+      <c r="BM7" s="113"/>
+      <c r="BN7" s="114"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
     </row>
-    <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -30450,7 +30459,7 @@
       <c r="BS8" s="25"/>
       <c r="BT8" s="25"/>
     </row>
-    <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
@@ -30646,7 +30655,7 @@
       <c r="BS9" s="25"/>
       <c r="BT9" s="25"/>
     </row>
-    <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
@@ -30812,7 +30821,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="118">
+      <c r="AY10" s="129">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -30840,7 +30849,7 @@
       <c r="BS10" s="25"/>
       <c r="BT10" s="25"/>
     </row>
-    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>5</v>
       </c>
@@ -31006,7 +31015,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="119"/>
+      <c r="AY11" s="130"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31035,7 +31044,7 @@
       <c r="BS11" s="25"/>
       <c r="BT11" s="25"/>
     </row>
-    <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>6</v>
       </c>
@@ -31187,7 +31196,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="118">
+      <c r="BE12" s="129">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31209,7 +31218,7 @@
       <c r="BS12" s="25"/>
       <c r="BT12" s="25"/>
     </row>
-    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>7</v>
       </c>
@@ -31295,7 +31304,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="119"/>
+      <c r="BE13" s="130"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>W50</v>
@@ -31315,7 +31324,7 @@
       <c r="BS13" s="25"/>
       <c r="BT13" s="25"/>
     </row>
-    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>8</v>
       </c>
@@ -31485,7 +31494,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="118">
+      <c r="AY14" s="129">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31513,7 +31522,7 @@
       <c r="BS14" s="25"/>
       <c r="BT14" s="25"/>
     </row>
-    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>9</v>
       </c>
@@ -31683,7 +31692,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="119"/>
+      <c r="AY15" s="130"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>Argentina</v>
@@ -31712,7 +31721,7 @@
       <c r="BS15" s="25"/>
       <c r="BT15" s="25"/>
     </row>
-    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>10</v>
       </c>
@@ -31890,7 +31899,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="118">
+      <c r="BK16" s="129">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -31906,7 +31915,7 @@
       <c r="BS16" s="25"/>
       <c r="BT16" s="25"/>
     </row>
-    <row r="17" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>11</v>
       </c>
@@ -32087,7 +32096,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="119"/>
+      <c r="BK17" s="130"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32101,7 +32110,7 @@
       <c r="BS17" s="25"/>
       <c r="BT17" s="25"/>
     </row>
-    <row r="18" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>12</v>
       </c>
@@ -32247,7 +32256,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="118">
+      <c r="AY18" s="129">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32275,7 +32284,7 @@
       <c r="BS18" s="25"/>
       <c r="BT18" s="25"/>
     </row>
-    <row r="19" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>13</v>
       </c>
@@ -32352,7 +32361,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="119"/>
+      <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>Mexico</v>
@@ -32381,7 +32390,7 @@
       <c r="BS19" s="25"/>
       <c r="BT19" s="25"/>
     </row>
-    <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>14</v>
       </c>
@@ -32557,7 +32566,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="118">
+      <c r="BE20" s="129">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32579,7 +32588,7 @@
       <c r="BS20" s="25"/>
       <c r="BT20" s="25"/>
     </row>
-    <row r="21" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>15</v>
       </c>
@@ -32758,7 +32767,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="119"/>
+      <c r="BE21" s="130"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32778,7 +32787,7 @@
       <c r="BS21" s="25"/>
       <c r="BT21" s="25"/>
     </row>
-    <row r="22" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>16</v>
       </c>
@@ -32944,7 +32953,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="118">
+      <c r="AY22" s="129">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -32975,7 +32984,7 @@
       <c r="BS22" s="25"/>
       <c r="BT22" s="35"/>
     </row>
-    <row r="23" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>17</v>
       </c>
@@ -33141,7 +33150,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="119"/>
+      <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>Japan</v>
@@ -33162,7 +33171,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="118">
+      <c r="BQ23" s="129">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33172,7 +33181,7 @@
       <c r="BS23" s="29"/>
       <c r="BT23" s="30"/>
     </row>
-    <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>18</v>
       </c>
@@ -33335,7 +33344,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="119"/>
+      <c r="BQ24" s="130"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33343,7 +33352,7 @@
       <c r="BS24" s="32"/>
       <c r="BT24" s="33"/>
     </row>
-    <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>19</v>
       </c>
@@ -33446,7 +33455,7 @@
       <c r="BS25" s="25"/>
       <c r="BT25" s="25"/>
     </row>
-    <row r="26" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>20</v>
       </c>
@@ -33616,7 +33625,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="118">
+      <c r="AY26" s="129">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33644,7 +33653,7 @@
       <c r="BS26" s="25"/>
       <c r="BT26" s="25"/>
     </row>
-    <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>21</v>
       </c>
@@ -33814,7 +33823,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="119"/>
+      <c r="AY27" s="130"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -33843,7 +33852,7 @@
       <c r="BS27" s="25"/>
       <c r="BT27" s="25"/>
     </row>
-    <row r="28" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>22</v>
       </c>
@@ -34015,7 +34024,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="118">
+      <c r="BE28" s="129">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34037,7 +34046,7 @@
       <c r="BS28" s="25"/>
       <c r="BT28" s="25"/>
     </row>
-    <row r="29" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>23</v>
       </c>
@@ -34212,7 +34221,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="119"/>
+      <c r="BE29" s="130"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34232,7 +34241,7 @@
       <c r="BS29" s="25"/>
       <c r="BT29" s="25"/>
     </row>
-    <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>24</v>
       </c>
@@ -34378,7 +34387,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="118">
+      <c r="AY30" s="129">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34406,7 +34415,7 @@
       <c r="BS30" s="25"/>
       <c r="BT30" s="25"/>
     </row>
-    <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>25</v>
       </c>
@@ -34476,7 +34485,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="119"/>
+      <c r="AY31" s="130"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
@@ -34500,15 +34509,15 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="124" t="str">
+      <c r="BQ31" s="131" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="125"/>
-      <c r="BS31" s="125"/>
-      <c r="BT31" s="126"/>
+      <c r="BR31" s="132"/>
+      <c r="BS31" s="132"/>
+      <c r="BT31" s="133"/>
     </row>
-    <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>26</v>
       </c>
@@ -34690,7 +34699,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="118">
+      <c r="BK32" s="129">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34701,12 +34710,12 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="127"/>
-      <c r="BR32" s="128"/>
-      <c r="BS32" s="128"/>
-      <c r="BT32" s="129"/>
+      <c r="BQ32" s="134"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="136"/>
     </row>
-    <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>27</v>
       </c>
@@ -34891,7 +34900,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="119"/>
+      <c r="BK33" s="130"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -34905,7 +34914,7 @@
       <c r="BS33" s="25"/>
       <c r="BT33" s="25"/>
     </row>
-    <row r="34" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>28</v>
       </c>
@@ -35071,7 +35080,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="118">
+      <c r="AY34" s="129">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35102,7 +35111,7 @@
       <c r="BS34" s="25"/>
       <c r="BT34" s="35"/>
     </row>
-    <row r="35" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>29</v>
       </c>
@@ -35268,7 +35277,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="119"/>
+      <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>Switzerland</v>
@@ -35292,7 +35301,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="118">
+      <c r="BQ35" s="129">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35302,7 +35311,7 @@
       <c r="BS35" s="29"/>
       <c r="BT35" s="30"/>
     </row>
-    <row r="36" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>30</v>
       </c>
@@ -35454,7 +35463,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="118">
+      <c r="BE36" s="129">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35471,7 +35480,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="119"/>
+      <c r="BQ36" s="130"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35479,7 +35488,7 @@
       <c r="BS36" s="32"/>
       <c r="BT36" s="33"/>
     </row>
-    <row r="37" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>31</v>
       </c>
@@ -35558,7 +35567,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="119"/>
+      <c r="BE37" s="130"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35578,7 +35587,7 @@
       <c r="BS37" s="25"/>
       <c r="BT37" s="25"/>
     </row>
-    <row r="38" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>32</v>
       </c>
@@ -35748,7 +35757,7 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="118">
+      <c r="AY38" s="129">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35772,7 +35781,7 @@
       <c r="BS38" s="25"/>
       <c r="BT38" s="25"/>
     </row>
-    <row r="39" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>33</v>
       </c>
@@ -35942,7 +35951,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="119"/>
+      <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>England</v>
@@ -35962,7 +35971,7 @@
       <c r="BS39" s="25"/>
       <c r="BT39" s="25"/>
     </row>
-    <row r="40" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:72" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>34</v>
       </c>
@@ -36129,7 +36138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>35</v>
       </c>
@@ -36295,25 +36304,25 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="120" t="str">
+      <c r="BJ41" s="146" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="120"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="122" t="str">
+      <c r="BK41" s="146"/>
+      <c r="BL41" s="146"/>
+      <c r="BM41" s="146"/>
+      <c r="BN41" s="146"/>
+      <c r="BO41" s="148" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="122"/>
+      <c r="BP41" s="148"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="148"/>
+      <c r="BS41" s="148"/>
+      <c r="BT41" s="148"/>
     </row>
-    <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>36</v>
       </c>
@@ -36459,19 +36468,19 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="121"/>
-      <c r="BK42" s="121"/>
-      <c r="BL42" s="121"/>
-      <c r="BM42" s="121"/>
-      <c r="BN42" s="121"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
+      <c r="BJ42" s="147"/>
+      <c r="BK42" s="147"/>
+      <c r="BL42" s="147"/>
+      <c r="BM42" s="147"/>
+      <c r="BN42" s="147"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="149"/>
+      <c r="BQ42" s="149"/>
+      <c r="BR42" s="149"/>
+      <c r="BS42" s="149"/>
+      <c r="BT42" s="149"/>
     </row>
-    <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>37</v>
       </c>
@@ -36543,7 +36552,7 @@
       </c>
       <c r="AY43" s="80"/>
     </row>
-    <row r="44" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>38</v>
       </c>
@@ -36714,7 +36723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>39</v>
       </c>
@@ -36885,7 +36894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>40</v>
       </c>
@@ -37051,14 +37060,14 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="109" t="s">
+      <c r="AY46" s="137" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="111"/>
+      <c r="AZ46" s="138"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="139"/>
     </row>
-    <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>41</v>
       </c>
@@ -37224,12 +37233,12 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="112"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="114"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="141"/>
+      <c r="BA47" s="141"/>
+      <c r="BB47" s="142"/>
     </row>
-    <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>42</v>
       </c>
@@ -37375,12 +37384,12 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="112"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="114"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="142"/>
     </row>
-    <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>43</v>
       </c>
@@ -37450,12 +37459,12 @@
         <f>MIN(AI44:AI47)</f>
         <v>-9</v>
       </c>
-      <c r="AY49" s="112"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="114"/>
+      <c r="AY49" s="140"/>
+      <c r="AZ49" s="141"/>
+      <c r="BA49" s="141"/>
+      <c r="BB49" s="142"/>
     </row>
-    <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>44</v>
       </c>
@@ -37625,12 +37634,12 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="113"/>
-      <c r="BA50" s="113"/>
-      <c r="BB50" s="114"/>
+      <c r="AY50" s="140"/>
+      <c r="AZ50" s="141"/>
+      <c r="BA50" s="141"/>
+      <c r="BB50" s="142"/>
     </row>
-    <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>45</v>
       </c>
@@ -37800,12 +37809,12 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="112"/>
-      <c r="AZ51" s="113"/>
-      <c r="BA51" s="113"/>
-      <c r="BB51" s="114"/>
+      <c r="AY51" s="140"/>
+      <c r="AZ51" s="141"/>
+      <c r="BA51" s="141"/>
+      <c r="BB51" s="142"/>
     </row>
-    <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>46</v>
       </c>
@@ -37971,12 +37980,12 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="115"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="117"/>
+      <c r="AY52" s="143"/>
+      <c r="AZ52" s="144"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="145"/>
     </row>
-    <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>47</v>
       </c>
@@ -38143,7 +38152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44">
         <v>48</v>
       </c>
@@ -38290,7 +38299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55" s="49"/>
       <c r="B55" s="50"/>
       <c r="C55" s="49"/>
@@ -38316,9 +38325,9 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
       <c r="R58" s="58">
         <f>DATE(2018,6,30)+TIME(7,0,0)+gmt_delta</f>
         <v>43281.541666666664</v>
@@ -38332,7 +38341,7 @@
         <v>W49</v>
       </c>
     </row>
-    <row r="59" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R59" s="58">
         <f>DATE(2018,6,30)+TIME(3,0,0)+gmt_delta</f>
         <v>43281.375</v>
@@ -38346,7 +38355,7 @@
         <v>W50</v>
       </c>
     </row>
-    <row r="60" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R60" s="58">
         <f>DATE(2018,7,1)+TIME(3,0,0)+gmt_delta</f>
         <v>43282.375</v>
@@ -38360,7 +38369,7 @@
         <v>W51</v>
       </c>
     </row>
-    <row r="61" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R61" s="58">
         <f>DATE(2018,7,1)+TIME(7,0,0)+gmt_delta</f>
         <v>43282.541666666664</v>
@@ -38374,7 +38383,7 @@
         <v>W52</v>
       </c>
     </row>
-    <row r="62" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R62" s="58">
         <f>DATE(2018,7,2)+TIME(3,0,0)+gmt_delta</f>
         <v>43283.375</v>
@@ -38388,7 +38397,7 @@
         <v>W53</v>
       </c>
     </row>
-    <row r="63" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R63" s="58">
         <f>DATE(2018,7,2)+TIME(7,0,0)+gmt_delta</f>
         <v>43283.541666666664</v>
@@ -38402,7 +38411,7 @@
         <v>W54</v>
       </c>
     </row>
-    <row r="64" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R64" s="58">
         <f>DATE(2018,7,3)+TIME(3,0,0)+gmt_delta</f>
         <v>43284.375</v>
@@ -38416,7 +38425,7 @@
         <v>W55</v>
       </c>
     </row>
-    <row r="65" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R65" s="58">
         <f>DATE(2018,7,3)+TIME(7,0,0)+gmt_delta</f>
         <v>43284.541666666664</v>
@@ -38430,10 +38439,10 @@
         <v>W56</v>
       </c>
     </row>
-    <row r="66" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R69" s="58">
         <f>DATE(2018,7,6)+TIME(3,0,0)+gmt_delta</f>
         <v>43287.375</v>
@@ -38447,7 +38456,7 @@
         <v>W57</v>
       </c>
     </row>
-    <row r="70" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R70" s="58">
         <f>DATE(2018,7,6)+TIME(7,0,0)+gmt_delta</f>
         <v>43287.541666666664</v>
@@ -38461,7 +38470,7 @@
         <v>W58</v>
       </c>
     </row>
-    <row r="71" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R71" s="58">
         <f>DATE(2018,7,7)+TIME(7,0,0)+gmt_delta</f>
         <v>43288.541666666664</v>
@@ -38475,7 +38484,7 @@
         <v>W59</v>
       </c>
     </row>
-    <row r="72" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R72" s="58">
         <f>DATE(2018,7,7)+TIME(3,0,0)+gmt_delta</f>
         <v>43288.375</v>
@@ -38489,10 +38498,10 @@
         <v>W60</v>
       </c>
     </row>
-    <row r="73" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R76" s="58">
         <f>DATE(2018,7,10)+TIME(7,0,0)+gmt_delta</f>
         <v>43291.541666666664</v>
@@ -38514,7 +38523,7 @@
         <v>L61</v>
       </c>
     </row>
-    <row r="77" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R77" s="58">
         <f>DATE(2018,7,11)+TIME(7,0,0)+gmt_delta</f>
         <v>43292.541666666664</v>
@@ -38536,9 +38545,9 @@
         <v>L62</v>
       </c>
     </row>
-    <row r="79" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R81" s="58">
         <f>DATE(2018,7,14)+TIME(3,0,0)+gmt_delta</f>
         <v>43295.375</v>
@@ -38548,9 +38557,9 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="18:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="18:20" x14ac:dyDescent="0.3">
       <c r="R85" s="58">
         <f>DATE(2018,7,15)+TIME(4,0,0)+gmt_delta</f>
         <v>43296.416666666664</v>
@@ -38564,34 +38573,13 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38599,7 +38587,29 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">
     <cfRule type="expression" dxfId="99" priority="16" stopIfTrue="1">
       <formula>IF(AND($F7&gt;$G7,ISNUMBER($F7),ISNUMBER($G7)),1,0)</formula>

--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -9322,6 +9322,90 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9400,90 +9484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29903,7 +29903,7 @@
   <dimension ref="A1:BT97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BA14" sqref="BA14"/>
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29958,25 +29958,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="136" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30039,11 +30039,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="116" t="str">
+      <c r="O3" s="137" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="116"/>
+      <c r="P3" s="137"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30069,43 +30069,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="str">
+      <c r="A5" s="138" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="J5" s="123" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="J5" s="144" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="125"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30169,34 +30169,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="109" t="str">
+      <c r="AY6" s="130" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="111"/>
-      <c r="BE6" s="109" t="str">
+      <c r="AZ6" s="131"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="132"/>
+      <c r="BE6" s="130" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="111"/>
-      <c r="BK6" s="109" t="str">
+      <c r="BF6" s="131"/>
+      <c r="BG6" s="131"/>
+      <c r="BH6" s="132"/>
+      <c r="BK6" s="130" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="111"/>
-      <c r="BQ6" s="109" t="str">
+      <c r="BL6" s="131"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="132"/>
+      <c r="BQ6" s="130" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="111"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="131"/>
+      <c r="BT6" s="132"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30260,22 +30260,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="114"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="114"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="113"/>
-      <c r="BM7" s="113"/>
-      <c r="BN7" s="114"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="113"/>
-      <c r="BS7" s="113"/>
-      <c r="BT7" s="114"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="134"/>
+      <c r="BA7" s="134"/>
+      <c r="BB7" s="135"/>
+      <c r="BE7" s="133"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="134"/>
+      <c r="BH7" s="135"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="134"/>
+      <c r="BM7" s="134"/>
+      <c r="BN7" s="135"/>
+      <c r="BQ7" s="133"/>
+      <c r="BR7" s="134"/>
+      <c r="BS7" s="134"/>
+      <c r="BT7" s="135"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30821,14 +30821,16 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="129">
+      <c r="AY10" s="118">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
         <f>AO8</f>
         <v>Uruguay</v>
       </c>
-      <c r="BA10" s="29"/>
+      <c r="BA10" s="29">
+        <v>2</v>
+      </c>
       <c r="BB10" s="30"/>
       <c r="BC10" s="25"/>
       <c r="BD10" s="25"/>
@@ -31015,12 +31017,14 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="130"/>
+      <c r="AY11" s="119"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
       </c>
-      <c r="BA11" s="32"/>
+      <c r="BA11" s="32">
+        <v>1</v>
+      </c>
       <c r="BB11" s="33"/>
       <c r="BC11" s="34"/>
       <c r="BD11" s="25"/>
@@ -31196,12 +31200,12 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="129">
+      <c r="BE12" s="118">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
         <f>T58</f>
-        <v>W49</v>
+        <v>Uruguay</v>
       </c>
       <c r="BG12" s="29"/>
       <c r="BH12" s="30"/>
@@ -31304,10 +31308,10 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="130"/>
+      <c r="BE13" s="119"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
-        <v>W50</v>
+        <v>France</v>
       </c>
       <c r="BG13" s="32"/>
       <c r="BH13" s="33"/>
@@ -31494,14 +31498,16 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="129">
+      <c r="AY14" s="118">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
         <f>AO20</f>
         <v>France</v>
       </c>
-      <c r="BA14" s="29"/>
+      <c r="BA14" s="29">
+        <v>4</v>
+      </c>
       <c r="BB14" s="30"/>
       <c r="BC14" s="40"/>
       <c r="BD14" s="25"/>
@@ -31692,12 +31698,14 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="130"/>
+      <c r="AY15" s="119"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>Argentina</v>
       </c>
-      <c r="BA15" s="32"/>
+      <c r="BA15" s="32">
+        <v>3</v>
+      </c>
       <c r="BB15" s="33"/>
       <c r="BC15" s="25"/>
       <c r="BD15" s="25"/>
@@ -31899,7 +31907,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="129">
+      <c r="BK16" s="118">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32096,7 +32104,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="130"/>
+      <c r="BK17" s="119"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32256,7 +32264,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="129">
+      <c r="AY18" s="118">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32361,7 +32369,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="130"/>
+      <c r="AY19" s="119"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>Mexico</v>
@@ -32566,7 +32574,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="129">
+      <c r="BE20" s="118">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32767,7 +32775,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="130"/>
+      <c r="BE21" s="119"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32953,7 +32961,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="129">
+      <c r="AY22" s="118">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33150,7 +33158,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="130"/>
+      <c r="AY23" s="119"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>Japan</v>
@@ -33171,7 +33179,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="129">
+      <c r="BQ23" s="118">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33344,7 +33352,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="130"/>
+      <c r="BQ24" s="119"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33625,7 +33633,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="129">
+      <c r="AY26" s="118">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33823,7 +33831,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="130"/>
+      <c r="AY27" s="119"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -34024,7 +34032,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="129">
+      <c r="BE28" s="118">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34221,7 +34229,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="130"/>
+      <c r="BE29" s="119"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>W52</v>
@@ -34387,7 +34395,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="129">
+      <c r="AY30" s="118">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34485,7 +34493,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="130"/>
+      <c r="AY31" s="119"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
@@ -34509,13 +34517,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="131" t="str">
+      <c r="BQ31" s="124" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="132"/>
-      <c r="BS31" s="132"/>
-      <c r="BT31" s="133"/>
+      <c r="BR31" s="125"/>
+      <c r="BS31" s="125"/>
+      <c r="BT31" s="126"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34699,7 +34707,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="129">
+      <c r="BK32" s="118">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34710,10 +34718,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="135"/>
-      <c r="BS32" s="135"/>
-      <c r="BT32" s="136"/>
+      <c r="BQ32" s="127"/>
+      <c r="BR32" s="128"/>
+      <c r="BS32" s="128"/>
+      <c r="BT32" s="129"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34900,7 +34908,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="130"/>
+      <c r="BK33" s="119"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35080,7 +35088,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="129">
+      <c r="AY34" s="118">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35277,7 +35285,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="130"/>
+      <c r="AY35" s="119"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>Switzerland</v>
@@ -35301,7 +35309,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="129">
+      <c r="BQ35" s="118">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35463,7 +35471,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="129">
+      <c r="BE36" s="118">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35480,7 +35488,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="130"/>
+      <c r="BQ36" s="119"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35567,7 +35575,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="130"/>
+      <c r="BE37" s="119"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35757,7 +35765,7 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="129">
+      <c r="AY38" s="118">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35951,7 +35959,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="130"/>
+      <c r="AY39" s="119"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>England</v>
@@ -36304,23 +36312,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="146" t="str">
+      <c r="BJ41" s="120" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="146"/>
-      <c r="BL41" s="146"/>
-      <c r="BM41" s="146"/>
-      <c r="BN41" s="146"/>
-      <c r="BO41" s="148" t="str">
+      <c r="BK41" s="120"/>
+      <c r="BL41" s="120"/>
+      <c r="BM41" s="120"/>
+      <c r="BN41" s="120"/>
+      <c r="BO41" s="122" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="148"/>
-      <c r="BQ41" s="148"/>
-      <c r="BR41" s="148"/>
-      <c r="BS41" s="148"/>
-      <c r="BT41" s="148"/>
+      <c r="BP41" s="122"/>
+      <c r="BQ41" s="122"/>
+      <c r="BR41" s="122"/>
+      <c r="BS41" s="122"/>
+      <c r="BT41" s="122"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36468,17 +36476,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="147"/>
-      <c r="BK42" s="147"/>
-      <c r="BL42" s="147"/>
-      <c r="BM42" s="147"/>
-      <c r="BN42" s="147"/>
-      <c r="BO42" s="149"/>
-      <c r="BP42" s="149"/>
-      <c r="BQ42" s="149"/>
-      <c r="BR42" s="149"/>
-      <c r="BS42" s="149"/>
-      <c r="BT42" s="149"/>
+      <c r="BJ42" s="121"/>
+      <c r="BK42" s="121"/>
+      <c r="BL42" s="121"/>
+      <c r="BM42" s="121"/>
+      <c r="BN42" s="121"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="123"/>
+      <c r="BT42" s="123"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37060,12 +37068,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="137" t="s">
+      <c r="AY46" s="109" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="139"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="111"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37233,10 +37241,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="141"/>
-      <c r="BA47" s="141"/>
-      <c r="BB47" s="142"/>
+      <c r="AY47" s="112"/>
+      <c r="AZ47" s="113"/>
+      <c r="BA47" s="113"/>
+      <c r="BB47" s="114"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37384,10 +37392,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="140"/>
-      <c r="AZ48" s="141"/>
-      <c r="BA48" s="141"/>
-      <c r="BB48" s="142"/>
+      <c r="AY48" s="112"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="114"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37459,10 +37467,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-9</v>
       </c>
-      <c r="AY49" s="140"/>
-      <c r="AZ49" s="141"/>
-      <c r="BA49" s="141"/>
-      <c r="BB49" s="142"/>
+      <c r="AY49" s="112"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="114"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37634,10 +37642,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="140"/>
-      <c r="AZ50" s="141"/>
-      <c r="BA50" s="141"/>
-      <c r="BB50" s="142"/>
+      <c r="AY50" s="112"/>
+      <c r="AZ50" s="113"/>
+      <c r="BA50" s="113"/>
+      <c r="BB50" s="114"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37809,10 +37817,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="140"/>
-      <c r="AZ51" s="141"/>
-      <c r="BA51" s="141"/>
-      <c r="BB51" s="142"/>
+      <c r="AY51" s="112"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="114"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37980,10 +37988,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="143"/>
-      <c r="AZ52" s="144"/>
-      <c r="BA52" s="144"/>
-      <c r="BB52" s="145"/>
+      <c r="AY52" s="115"/>
+      <c r="AZ52" s="116"/>
+      <c r="BA52" s="116"/>
+      <c r="BB52" s="117"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38334,11 +38342,11 @@
       </c>
       <c r="S58" s="65" t="str">
         <f>IF(OR(BA10="",BA11=""),"",IF(BA10&gt;BA11,AZ10,IF(BA10&lt;BA11,AZ11,IF(OR(BB10="",BB11=""),"draw",IF(BB10&gt;BB11,AZ10,IF(BB10&lt;BB11,AZ11,"draw"))))))</f>
-        <v/>
+        <v>Uruguay</v>
       </c>
       <c r="T58" s="65" t="str">
         <f>IF(OR(S58="",S58="draw"),INDEX(T,86,lang),S58)</f>
-        <v>W49</v>
+        <v>Uruguay</v>
       </c>
     </row>
     <row r="59" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38348,11 +38356,11 @@
       </c>
       <c r="S59" s="65" t="str">
         <f>IF(OR(BA14="",BA15=""),"",IF(BA14&gt;BA15,AZ14,IF(BA14&lt;BA15,AZ15,IF(OR(BB14="",BB15=""),"draw",IF(BB14&gt;BB15,AZ14,IF(BB14&lt;BB15,AZ15,"draw"))))))</f>
-        <v/>
+        <v>France</v>
       </c>
       <c r="T59" s="65" t="str">
         <f>IF(OR(S59="",S59="draw"),INDEX(T,87,lang),S59)</f>
-        <v>W50</v>
+        <v>France</v>
       </c>
     </row>
     <row r="60" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38580,6 +38588,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38587,27 +38616,6 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -9322,90 +9322,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9484,6 +9400,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29902,8 +29902,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="BA30" sqref="BA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29958,25 +29958,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="str">
+      <c r="A1" s="115" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30039,11 +30039,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="137" t="str">
+      <c r="O3" s="116" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="137"/>
+      <c r="P3" s="116"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30069,43 +30069,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="str">
+      <c r="A5" s="117" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="J5" s="144" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="J5" s="123" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30169,34 +30169,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="130" t="str">
+      <c r="AY6" s="109" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
-      <c r="BE6" s="130" t="str">
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="111"/>
+      <c r="BE6" s="109" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="132"/>
-      <c r="BK6" s="130" t="str">
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BK6" s="109" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="132"/>
-      <c r="BQ6" s="130" t="str">
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="111"/>
+      <c r="BQ6" s="109" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="111"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30260,22 +30260,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="135"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
-      <c r="BM7" s="134"/>
-      <c r="BN7" s="135"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="134"/>
-      <c r="BS7" s="134"/>
-      <c r="BT7" s="135"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="113"/>
+      <c r="BM7" s="113"/>
+      <c r="BN7" s="114"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30821,7 +30821,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="118">
+      <c r="AY10" s="129">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31017,7 +31017,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="119"/>
+      <c r="AY11" s="130"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31200,7 +31200,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="118">
+      <c r="BE12" s="129">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31308,7 +31308,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="119"/>
+      <c r="BE13" s="130"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>France</v>
@@ -31498,7 +31498,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="118">
+      <c r="AY14" s="129">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31698,7 +31698,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="119"/>
+      <c r="AY15" s="130"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>Argentina</v>
@@ -31907,7 +31907,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="118">
+      <c r="BK16" s="129">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32104,7 +32104,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="119"/>
+      <c r="BK17" s="130"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32264,7 +32264,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="118">
+      <c r="AY18" s="129">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32369,7 +32369,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="119"/>
+      <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>Mexico</v>
@@ -32574,7 +32574,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="118">
+      <c r="BE20" s="129">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32775,7 +32775,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="119"/>
+      <c r="BE21" s="130"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>W54</v>
@@ -32961,7 +32961,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="118">
+      <c r="AY22" s="129">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33158,7 +33158,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="119"/>
+      <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>Japan</v>
@@ -33179,7 +33179,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="118">
+      <c r="BQ23" s="129">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33352,7 +33352,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="119"/>
+      <c r="BQ24" s="130"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33633,15 +33633,19 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="118">
+      <c r="AY26" s="129">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
         <f>AO14</f>
         <v>Spain</v>
       </c>
-      <c r="BA26" s="29"/>
-      <c r="BB26" s="30"/>
+      <c r="BA26" s="29">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="30">
+        <v>3</v>
+      </c>
       <c r="BC26" s="25"/>
       <c r="BD26" s="25"/>
       <c r="BE26" s="25"/>
@@ -33831,13 +33835,17 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="119"/>
+      <c r="AY27" s="130"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
       </c>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="33"/>
+      <c r="BA27" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="33">
+        <v>4</v>
+      </c>
       <c r="BC27" s="34"/>
       <c r="BD27" s="25"/>
       <c r="BE27" s="25" t="str">
@@ -34032,12 +34040,12 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="118">
+      <c r="BE28" s="129">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
         <f>T60</f>
-        <v>W51</v>
+        <v>Russia</v>
       </c>
       <c r="BG28" s="29"/>
       <c r="BH28" s="30"/>
@@ -34229,10 +34237,10 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="119"/>
+      <c r="BE29" s="130"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
-        <v>W52</v>
+        <v>Croatia</v>
       </c>
       <c r="BG29" s="32"/>
       <c r="BH29" s="33"/>
@@ -34395,15 +34403,19 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="118">
+      <c r="AY30" s="129">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
         <f>AO26</f>
         <v>Croatia</v>
       </c>
-      <c r="BA30" s="29"/>
-      <c r="BB30" s="30"/>
+      <c r="BA30" s="29">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="30">
+        <v>3</v>
+      </c>
       <c r="BC30" s="40"/>
       <c r="BD30" s="25"/>
       <c r="BE30" s="25"/>
@@ -34493,13 +34505,17 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="119"/>
+      <c r="AY31" s="130"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
       </c>
-      <c r="BA31" s="32"/>
-      <c r="BB31" s="33"/>
+      <c r="BA31" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="33">
+        <v>2</v>
+      </c>
       <c r="BC31" s="25"/>
       <c r="BD31" s="25"/>
       <c r="BE31" s="25"/>
@@ -34517,13 +34533,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="124" t="str">
+      <c r="BQ31" s="131" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="125"/>
-      <c r="BS31" s="125"/>
-      <c r="BT31" s="126"/>
+      <c r="BR31" s="132"/>
+      <c r="BS31" s="132"/>
+      <c r="BT31" s="133"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34707,7 +34723,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="118">
+      <c r="BK32" s="129">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34718,10 +34734,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="127"/>
-      <c r="BR32" s="128"/>
-      <c r="BS32" s="128"/>
-      <c r="BT32" s="129"/>
+      <c r="BQ32" s="134"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="136"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34908,7 +34924,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="119"/>
+      <c r="BK33" s="130"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35088,7 +35104,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="118">
+      <c r="AY34" s="129">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35285,7 +35301,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="119"/>
+      <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>Switzerland</v>
@@ -35309,7 +35325,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="118">
+      <c r="BQ35" s="129">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35471,7 +35487,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="118">
+      <c r="BE36" s="129">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35488,7 +35504,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="119"/>
+      <c r="BQ36" s="130"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35575,7 +35591,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="119"/>
+      <c r="BE37" s="130"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>W56</v>
@@ -35765,7 +35781,7 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="118">
+      <c r="AY38" s="129">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35959,7 +35975,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="119"/>
+      <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>England</v>
@@ -36312,23 +36328,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="120" t="str">
+      <c r="BJ41" s="146" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="120"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="122" t="str">
+      <c r="BK41" s="146"/>
+      <c r="BL41" s="146"/>
+      <c r="BM41" s="146"/>
+      <c r="BN41" s="146"/>
+      <c r="BO41" s="148" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="122"/>
+      <c r="BP41" s="148"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="148"/>
+      <c r="BS41" s="148"/>
+      <c r="BT41" s="148"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36476,17 +36492,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="121"/>
-      <c r="BK42" s="121"/>
-      <c r="BL42" s="121"/>
-      <c r="BM42" s="121"/>
-      <c r="BN42" s="121"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
+      <c r="BJ42" s="147"/>
+      <c r="BK42" s="147"/>
+      <c r="BL42" s="147"/>
+      <c r="BM42" s="147"/>
+      <c r="BN42" s="147"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="149"/>
+      <c r="BQ42" s="149"/>
+      <c r="BR42" s="149"/>
+      <c r="BS42" s="149"/>
+      <c r="BT42" s="149"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37068,12 +37084,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="109" t="s">
+      <c r="AY46" s="137" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="111"/>
+      <c r="AZ46" s="138"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="139"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37241,10 +37257,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="112"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="114"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="141"/>
+      <c r="BA47" s="141"/>
+      <c r="BB47" s="142"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37392,10 +37408,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="112"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="114"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="142"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37467,10 +37483,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-9</v>
       </c>
-      <c r="AY49" s="112"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="114"/>
+      <c r="AY49" s="140"/>
+      <c r="AZ49" s="141"/>
+      <c r="BA49" s="141"/>
+      <c r="BB49" s="142"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37642,10 +37658,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="113"/>
-      <c r="BA50" s="113"/>
-      <c r="BB50" s="114"/>
+      <c r="AY50" s="140"/>
+      <c r="AZ50" s="141"/>
+      <c r="BA50" s="141"/>
+      <c r="BB50" s="142"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37817,10 +37833,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="112"/>
-      <c r="AZ51" s="113"/>
-      <c r="BA51" s="113"/>
-      <c r="BB51" s="114"/>
+      <c r="AY51" s="140"/>
+      <c r="AZ51" s="141"/>
+      <c r="BA51" s="141"/>
+      <c r="BB51" s="142"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -37988,10 +38004,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="115"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="117"/>
+      <c r="AY52" s="143"/>
+      <c r="AZ52" s="144"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="145"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38370,11 +38386,11 @@
       </c>
       <c r="S60" s="65" t="str">
         <f>IF(OR(BA26="",BA27=""),"",IF(BA26&gt;BA27,AZ26,IF(BA26&lt;BA27,AZ27,IF(OR(BB26="",BB27=""),"draw",IF(BB26&gt;BB27,AZ26,IF(BB26&lt;BB27,AZ27,"draw"))))))</f>
-        <v/>
+        <v>Russia</v>
       </c>
       <c r="T60" s="65" t="str">
         <f>IF(OR(S60="",S60="draw"),INDEX(T,88,lang),S60)</f>
-        <v>W51</v>
+        <v>Russia</v>
       </c>
     </row>
     <row r="61" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38384,11 +38400,11 @@
       </c>
       <c r="S61" s="65" t="str">
         <f>IF(OR(BA30="",BA31=""),"",IF(BA30&gt;BA31,AZ30,IF(BA30&lt;BA31,AZ31,IF(OR(BB30="",BB31=""),"draw",IF(BB30&gt;BB31,AZ30,IF(BB30&lt;BB31,AZ31,"draw"))))))</f>
-        <v/>
+        <v>Croatia</v>
       </c>
       <c r="T61" s="65" t="str">
         <f>IF(OR(S61="",S61="draw"),INDEX(T,89,lang),S61)</f>
-        <v>W52</v>
+        <v>Croatia</v>
       </c>
     </row>
     <row r="62" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38588,27 +38604,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38616,6 +38611,27 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -25,7 +25,7 @@
     <definedName name="T">T!$1:$1048576</definedName>
     <definedName name="teams">Settings!$I$17:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -9322,6 +9322,90 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9400,90 +9484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29902,8 +29902,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="BA30" sqref="BA30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="BB39" sqref="BB39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29958,25 +29958,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="136" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30039,11 +30039,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="116" t="str">
+      <c r="O3" s="137" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="116"/>
+      <c r="P3" s="137"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30069,43 +30069,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="str">
+      <c r="A5" s="138" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="J5" s="123" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="J5" s="144" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="125"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30169,34 +30169,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="109" t="str">
+      <c r="AY6" s="130" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="111"/>
-      <c r="BE6" s="109" t="str">
+      <c r="AZ6" s="131"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="132"/>
+      <c r="BE6" s="130" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="111"/>
-      <c r="BK6" s="109" t="str">
+      <c r="BF6" s="131"/>
+      <c r="BG6" s="131"/>
+      <c r="BH6" s="132"/>
+      <c r="BK6" s="130" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="111"/>
-      <c r="BQ6" s="109" t="str">
+      <c r="BL6" s="131"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="132"/>
+      <c r="BQ6" s="130" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="111"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="131"/>
+      <c r="BT6" s="132"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30260,22 +30260,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="114"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="114"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="113"/>
-      <c r="BM7" s="113"/>
-      <c r="BN7" s="114"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="113"/>
-      <c r="BS7" s="113"/>
-      <c r="BT7" s="114"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="134"/>
+      <c r="BA7" s="134"/>
+      <c r="BB7" s="135"/>
+      <c r="BE7" s="133"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="134"/>
+      <c r="BH7" s="135"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="134"/>
+      <c r="BM7" s="134"/>
+      <c r="BN7" s="135"/>
+      <c r="BQ7" s="133"/>
+      <c r="BR7" s="134"/>
+      <c r="BS7" s="134"/>
+      <c r="BT7" s="135"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30821,7 +30821,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="129">
+      <c r="AY10" s="118">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31017,7 +31017,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="130"/>
+      <c r="AY11" s="119"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31200,7 +31200,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="129">
+      <c r="BE12" s="118">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31308,7 +31308,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="130"/>
+      <c r="BE13" s="119"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>France</v>
@@ -31498,7 +31498,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="129">
+      <c r="AY14" s="118">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31698,7 +31698,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="130"/>
+      <c r="AY15" s="119"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>Argentina</v>
@@ -31907,7 +31907,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="129">
+      <c r="BK16" s="118">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32104,7 +32104,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="130"/>
+      <c r="BK17" s="119"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>W58</v>
@@ -32264,14 +32264,16 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="129">
+      <c r="AY18" s="118">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
         <f>AO32</f>
         <v>Brazil</v>
       </c>
-      <c r="BA18" s="29"/>
+      <c r="BA18" s="29">
+        <v>2</v>
+      </c>
       <c r="BB18" s="30"/>
       <c r="BC18" s="25"/>
       <c r="BD18" s="25"/>
@@ -32369,12 +32371,14 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="130"/>
+      <c r="AY19" s="119"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>Mexico</v>
       </c>
-      <c r="BA19" s="32"/>
+      <c r="BA19" s="32">
+        <v>0</v>
+      </c>
       <c r="BB19" s="33"/>
       <c r="BC19" s="34"/>
       <c r="BD19" s="25"/>
@@ -32574,12 +32578,12 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="129">
+      <c r="BE20" s="118">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
         <f>T62</f>
-        <v>W53</v>
+        <v>Brazil</v>
       </c>
       <c r="BG20" s="29"/>
       <c r="BH20" s="30"/>
@@ -32775,10 +32779,10 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="130"/>
+      <c r="BE21" s="119"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
-        <v>W54</v>
+        <v>Belgium</v>
       </c>
       <c r="BG21" s="32"/>
       <c r="BH21" s="33"/>
@@ -32961,14 +32965,16 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="129">
+      <c r="AY22" s="118">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
         <f>AO44</f>
         <v>Belgium</v>
       </c>
-      <c r="BA22" s="29"/>
+      <c r="BA22" s="29">
+        <v>3</v>
+      </c>
       <c r="BB22" s="30"/>
       <c r="BC22" s="40"/>
       <c r="BD22" s="25"/>
@@ -33158,12 +33164,14 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="130"/>
+      <c r="AY23" s="119"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>Japan</v>
       </c>
-      <c r="BA23" s="32"/>
+      <c r="BA23" s="32">
+        <v>2</v>
+      </c>
       <c r="BB23" s="33"/>
       <c r="BC23" s="25"/>
       <c r="BD23" s="25"/>
@@ -33179,7 +33187,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="129">
+      <c r="BQ23" s="118">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33352,7 +33360,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="130"/>
+      <c r="BQ24" s="119"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33633,7 +33641,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="129">
+      <c r="AY26" s="118">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33835,7 +33843,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="130"/>
+      <c r="AY27" s="119"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -34040,7 +34048,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="129">
+      <c r="BE28" s="118">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34237,7 +34245,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="130"/>
+      <c r="BE29" s="119"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>Croatia</v>
@@ -34403,7 +34411,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="129">
+      <c r="AY30" s="118">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34505,7 +34513,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="130"/>
+      <c r="AY31" s="119"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
@@ -34533,13 +34541,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="131" t="str">
+      <c r="BQ31" s="124" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="132"/>
-      <c r="BS31" s="132"/>
-      <c r="BT31" s="133"/>
+      <c r="BR31" s="125"/>
+      <c r="BS31" s="125"/>
+      <c r="BT31" s="126"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34723,7 +34731,7 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="129">
+      <c r="BK32" s="118">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
@@ -34734,10 +34742,10 @@
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="135"/>
-      <c r="BS32" s="135"/>
-      <c r="BT32" s="136"/>
+      <c r="BQ32" s="127"/>
+      <c r="BR32" s="128"/>
+      <c r="BS32" s="128"/>
+      <c r="BT32" s="129"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34924,7 +34932,7 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="130"/>
+      <c r="BK33" s="119"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>W60</v>
@@ -35104,14 +35112,16 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="129">
+      <c r="AY34" s="118">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
         <f>AO38</f>
         <v>Sweden</v>
       </c>
-      <c r="BA34" s="29"/>
+      <c r="BA34" s="29">
+        <v>1</v>
+      </c>
       <c r="BB34" s="30"/>
       <c r="BC34" s="25"/>
       <c r="BD34" s="25"/>
@@ -35301,12 +35311,14 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="130"/>
+      <c r="AY35" s="119"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>Switzerland</v>
       </c>
-      <c r="BA35" s="32"/>
+      <c r="BA35" s="32">
+        <v>0</v>
+      </c>
       <c r="BB35" s="33"/>
       <c r="BC35" s="34"/>
       <c r="BD35" s="25"/>
@@ -35325,7 +35337,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="129">
+      <c r="BQ35" s="118">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35487,12 +35499,12 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="129">
+      <c r="BE36" s="118">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
         <f>T64</f>
-        <v>W55</v>
+        <v>Sweden</v>
       </c>
       <c r="BG36" s="29"/>
       <c r="BH36" s="30"/>
@@ -35504,7 +35516,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="130"/>
+      <c r="BQ36" s="119"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35591,10 +35603,10 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="130"/>
+      <c r="BE37" s="119"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
-        <v>W56</v>
+        <v>England</v>
       </c>
       <c r="BG37" s="32"/>
       <c r="BH37" s="33"/>
@@ -35781,15 +35793,19 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="129">
+      <c r="AY38" s="118">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
         <f>AO50</f>
         <v>Colombia</v>
       </c>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="30"/>
+      <c r="BA38" s="29">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="30">
+        <v>3</v>
+      </c>
       <c r="BC38" s="40"/>
       <c r="BD38" s="25"/>
       <c r="BI38" s="25"/>
@@ -35975,13 +35991,17 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="130"/>
+      <c r="AY39" s="119"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>England</v>
       </c>
-      <c r="BA39" s="32"/>
-      <c r="BB39" s="33"/>
+      <c r="BA39" s="32">
+        <v>1</v>
+      </c>
+      <c r="BB39" s="33">
+        <v>4</v>
+      </c>
       <c r="BC39" s="25"/>
       <c r="BD39" s="25"/>
       <c r="BK39" s="25"/>
@@ -36328,23 +36348,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="146" t="str">
+      <c r="BJ41" s="120" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="146"/>
-      <c r="BL41" s="146"/>
-      <c r="BM41" s="146"/>
-      <c r="BN41" s="146"/>
-      <c r="BO41" s="148" t="str">
+      <c r="BK41" s="120"/>
+      <c r="BL41" s="120"/>
+      <c r="BM41" s="120"/>
+      <c r="BN41" s="120"/>
+      <c r="BO41" s="122" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="148"/>
-      <c r="BQ41" s="148"/>
-      <c r="BR41" s="148"/>
-      <c r="BS41" s="148"/>
-      <c r="BT41" s="148"/>
+      <c r="BP41" s="122"/>
+      <c r="BQ41" s="122"/>
+      <c r="BR41" s="122"/>
+      <c r="BS41" s="122"/>
+      <c r="BT41" s="122"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36492,17 +36512,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="147"/>
-      <c r="BK42" s="147"/>
-      <c r="BL42" s="147"/>
-      <c r="BM42" s="147"/>
-      <c r="BN42" s="147"/>
-      <c r="BO42" s="149"/>
-      <c r="BP42" s="149"/>
-      <c r="BQ42" s="149"/>
-      <c r="BR42" s="149"/>
-      <c r="BS42" s="149"/>
-      <c r="BT42" s="149"/>
+      <c r="BJ42" s="121"/>
+      <c r="BK42" s="121"/>
+      <c r="BL42" s="121"/>
+      <c r="BM42" s="121"/>
+      <c r="BN42" s="121"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="123"/>
+      <c r="BT42" s="123"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37084,12 +37104,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="137" t="s">
+      <c r="AY46" s="109" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="139"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="111"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37257,10 +37277,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="141"/>
-      <c r="BA47" s="141"/>
-      <c r="BB47" s="142"/>
+      <c r="AY47" s="112"/>
+      <c r="AZ47" s="113"/>
+      <c r="BA47" s="113"/>
+      <c r="BB47" s="114"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37408,10 +37428,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="140"/>
-      <c r="AZ48" s="141"/>
-      <c r="BA48" s="141"/>
-      <c r="BB48" s="142"/>
+      <c r="AY48" s="112"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="114"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37483,10 +37503,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-9</v>
       </c>
-      <c r="AY49" s="140"/>
-      <c r="AZ49" s="141"/>
-      <c r="BA49" s="141"/>
-      <c r="BB49" s="142"/>
+      <c r="AY49" s="112"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="114"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37658,10 +37678,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="140"/>
-      <c r="AZ50" s="141"/>
-      <c r="BA50" s="141"/>
-      <c r="BB50" s="142"/>
+      <c r="AY50" s="112"/>
+      <c r="AZ50" s="113"/>
+      <c r="BA50" s="113"/>
+      <c r="BB50" s="114"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37833,10 +37853,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="140"/>
-      <c r="AZ51" s="141"/>
-      <c r="BA51" s="141"/>
-      <c r="BB51" s="142"/>
+      <c r="AY51" s="112"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="114"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -38004,10 +38024,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="143"/>
-      <c r="AZ52" s="144"/>
-      <c r="BA52" s="144"/>
-      <c r="BB52" s="145"/>
+      <c r="AY52" s="115"/>
+      <c r="AZ52" s="116"/>
+      <c r="BA52" s="116"/>
+      <c r="BB52" s="117"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38414,11 +38434,11 @@
       </c>
       <c r="S62" s="65" t="str">
         <f>IF(OR(BA18="",BA19=""),"",IF(BA18&gt;BA19,AZ18,IF(BA18&lt;BA19,AZ19,IF(OR(BB18="",BB19=""),"draw",IF(BB18&gt;BB19,AZ18,IF(BB18&lt;BB19,AZ19,"draw"))))))</f>
-        <v/>
+        <v>Brazil</v>
       </c>
       <c r="T62" s="65" t="str">
         <f>IF(OR(S62="",S62="draw"),INDEX(T,90,lang),S62)</f>
-        <v>W53</v>
+        <v>Brazil</v>
       </c>
     </row>
     <row r="63" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38428,11 +38448,11 @@
       </c>
       <c r="S63" s="65" t="str">
         <f>IF(OR(BA22="",BA23=""),"",IF(BA22&gt;BA23,AZ22,IF(BA22&lt;BA23,AZ23,IF(OR(BB22="",BB23=""),"draw",IF(BB22&gt;BB23,AZ22,IF(BB22&lt;BB23,AZ23,"draw"))))))</f>
-        <v/>
+        <v>Belgium</v>
       </c>
       <c r="T63" s="65" t="str">
         <f>IF(OR(S63="",S63="draw"),INDEX(T,91,lang),S63)</f>
-        <v>W54</v>
+        <v>Belgium</v>
       </c>
     </row>
     <row r="64" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38442,11 +38462,11 @@
       </c>
       <c r="S64" s="65" t="str">
         <f>IF(OR(BA34="",BA35=""),"",IF(BA34&gt;BA35,AZ34,IF(BA34&lt;BA35,AZ35,IF(OR(BB34="",BB35=""),"draw",IF(BB34&gt;BB35,AZ34,IF(BB34&lt;BB35,AZ35,"draw"))))))</f>
-        <v/>
+        <v>Sweden</v>
       </c>
       <c r="T64" s="65" t="str">
         <f>IF(OR(S64="",S64="draw"),INDEX(T,92,lang),S64)</f>
-        <v>W55</v>
+        <v>Sweden</v>
       </c>
     </row>
     <row r="65" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38456,11 +38476,11 @@
       </c>
       <c r="S65" s="65" t="str">
         <f>IF(OR(BA38="",BA39=""),"",IF(BA38&gt;BA39,AZ38,IF(BA38&lt;BA39,AZ39,IF(OR(BB38="",BB39=""),"draw",IF(BB38&gt;BB39,AZ38,IF(BB38&lt;BB39,AZ39,"draw"))))))</f>
-        <v/>
+        <v>England</v>
       </c>
       <c r="T65" s="65" t="str">
         <f>IF(OR(S65="",S65="draw"),INDEX(T,93,lang),S65)</f>
-        <v>W56</v>
+        <v>England</v>
       </c>
     </row>
     <row r="66" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38604,6 +38624,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38611,27 +38652,6 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -29903,7 +29903,7 @@
   <dimension ref="A1:BT97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="BB39" sqref="BB39"/>
+      <selection activeCell="BG24" sqref="BG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31207,7 +31207,9 @@
         <f>T58</f>
         <v>Uruguay</v>
       </c>
-      <c r="BG12" s="29"/>
+      <c r="BG12" s="29">
+        <v>0</v>
+      </c>
       <c r="BH12" s="30"/>
       <c r="BI12" s="25"/>
       <c r="BJ12" s="25"/>
@@ -31313,7 +31315,9 @@
         <f>T59</f>
         <v>France</v>
       </c>
-      <c r="BG13" s="32"/>
+      <c r="BG13" s="32">
+        <v>2</v>
+      </c>
       <c r="BH13" s="33"/>
       <c r="BI13" s="34"/>
       <c r="BJ13" s="25"/>
@@ -31912,7 +31916,7 @@
       </c>
       <c r="BL16" s="28" t="str">
         <f>T69</f>
-        <v>W57</v>
+        <v>France</v>
       </c>
       <c r="BM16" s="29"/>
       <c r="BN16" s="30"/>
@@ -32107,7 +32111,7 @@
       <c r="BK17" s="119"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
-        <v>W58</v>
+        <v>Belgium</v>
       </c>
       <c r="BM17" s="32"/>
       <c r="BN17" s="33"/>
@@ -32585,7 +32589,9 @@
         <f>T62</f>
         <v>Brazil</v>
       </c>
-      <c r="BG20" s="29"/>
+      <c r="BG20" s="29">
+        <v>1</v>
+      </c>
       <c r="BH20" s="30"/>
       <c r="BI20" s="40"/>
       <c r="BJ20" s="25"/>
@@ -32784,7 +32790,9 @@
         <f>T63</f>
         <v>Belgium</v>
       </c>
-      <c r="BG21" s="32"/>
+      <c r="BG21" s="32">
+        <v>2</v>
+      </c>
       <c r="BH21" s="33"/>
       <c r="BI21" s="25"/>
       <c r="BJ21" s="25"/>
@@ -38493,11 +38501,11 @@
       </c>
       <c r="S69" s="65" t="str">
         <f>IF(OR(BG12="",BG13=""),"",IF(BG12&gt;BG13,BF12,IF(BG12&lt;BG13,BF13,IF(OR(BH12="",BH13=""),"draw",IF(BH12&gt;BH13,BF12,IF(BH12&lt;BH13,BF13,"draw"))))))</f>
-        <v/>
+        <v>France</v>
       </c>
       <c r="T69" s="65" t="str">
         <f>IF(OR(S69="",S69="draw"),INDEX(T,94,lang),S69)</f>
-        <v>W57</v>
+        <v>France</v>
       </c>
     </row>
     <row r="70" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38507,11 +38515,11 @@
       </c>
       <c r="S70" s="65" t="str">
         <f>IF(OR(BG20="",BG21=""),"",IF(BG20&gt;BG21,BF20,IF(BG20&lt;BG21,BF21,IF(OR(BH20="",BH21=""),"draw",IF(BH20&gt;BH21,BF20,IF(BH20&lt;BH21,BF21,"draw"))))))</f>
-        <v/>
+        <v>Belgium</v>
       </c>
       <c r="T70" s="65" t="str">
         <f>IF(OR(S70="",S70="draw"),INDEX(T,95,lang),S70)</f>
-        <v>W58</v>
+        <v>Belgium</v>
       </c>
     </row>
     <row r="71" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -9322,90 +9322,6 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9484,6 +9400,90 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29902,8 +29902,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="BG24" sqref="BG24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E9" workbookViewId="0">
+      <selection activeCell="BH22" sqref="BH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29958,25 +29958,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="str">
+      <c r="A1" s="115" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30039,11 +30039,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="137" t="str">
+      <c r="O3" s="116" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="137"/>
+      <c r="P3" s="116"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30069,43 +30069,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="str">
+      <c r="A5" s="117" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
-      <c r="J5" s="144" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="J5" s="123" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="125"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141"/>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="149"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30169,34 +30169,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="130" t="str">
+      <c r="AY6" s="109" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="132"/>
-      <c r="BE6" s="130" t="str">
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="111"/>
+      <c r="BE6" s="109" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="132"/>
-      <c r="BK6" s="130" t="str">
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="110"/>
+      <c r="BH6" s="111"/>
+      <c r="BK6" s="109" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="131"/>
-      <c r="BM6" s="131"/>
-      <c r="BN6" s="132"/>
-      <c r="BQ6" s="130" t="str">
+      <c r="BL6" s="110"/>
+      <c r="BM6" s="110"/>
+      <c r="BN6" s="111"/>
+      <c r="BQ6" s="109" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="131"/>
-      <c r="BS6" s="131"/>
-      <c r="BT6" s="132"/>
+      <c r="BR6" s="110"/>
+      <c r="BS6" s="110"/>
+      <c r="BT6" s="111"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30260,22 +30260,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="134"/>
-      <c r="BA7" s="134"/>
-      <c r="BB7" s="135"/>
-      <c r="BE7" s="133"/>
-      <c r="BF7" s="134"/>
-      <c r="BG7" s="134"/>
-      <c r="BH7" s="135"/>
-      <c r="BK7" s="133"/>
-      <c r="BL7" s="134"/>
-      <c r="BM7" s="134"/>
-      <c r="BN7" s="135"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="134"/>
-      <c r="BS7" s="134"/>
-      <c r="BT7" s="135"/>
+      <c r="AY7" s="112"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="114"/>
+      <c r="BE7" s="112"/>
+      <c r="BF7" s="113"/>
+      <c r="BG7" s="113"/>
+      <c r="BH7" s="114"/>
+      <c r="BK7" s="112"/>
+      <c r="BL7" s="113"/>
+      <c r="BM7" s="113"/>
+      <c r="BN7" s="114"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30821,7 +30821,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="118">
+      <c r="AY10" s="129">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31017,7 +31017,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="119"/>
+      <c r="AY11" s="130"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31200,7 +31200,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="118">
+      <c r="BE12" s="129">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31310,7 +31310,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="119"/>
+      <c r="BE13" s="130"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>France</v>
@@ -31502,7 +31502,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="118">
+      <c r="AY14" s="129">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31702,7 +31702,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="119"/>
+      <c r="AY15" s="130"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>Argentina</v>
@@ -31911,7 +31911,7 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="118">
+      <c r="BK16" s="129">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
@@ -32108,7 +32108,7 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="119"/>
+      <c r="BK17" s="130"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>Belgium</v>
@@ -32268,7 +32268,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="118">
+      <c r="AY18" s="129">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32375,7 +32375,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="119"/>
+      <c r="AY19" s="130"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>Mexico</v>
@@ -32582,7 +32582,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="118">
+      <c r="BE20" s="129">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32785,7 +32785,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="119"/>
+      <c r="BE21" s="130"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>Belgium</v>
@@ -32973,7 +32973,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="118">
+      <c r="AY22" s="129">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33172,7 +33172,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="119"/>
+      <c r="AY23" s="130"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>Japan</v>
@@ -33195,7 +33195,7 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="118">
+      <c r="BQ23" s="129">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
@@ -33368,7 +33368,7 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="119"/>
+      <c r="BQ24" s="130"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
         <v>W62</v>
@@ -33649,7 +33649,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="118">
+      <c r="AY26" s="129">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33851,7 +33851,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="119"/>
+      <c r="AY27" s="130"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -34056,15 +34056,19 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="118">
+      <c r="BE28" s="129">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
         <f>T60</f>
         <v>Russia</v>
       </c>
-      <c r="BG28" s="29"/>
-      <c r="BH28" s="30"/>
+      <c r="BG28" s="29">
+        <v>2</v>
+      </c>
+      <c r="BH28" s="30">
+        <v>3</v>
+      </c>
       <c r="BI28" s="25"/>
       <c r="BJ28" s="25"/>
       <c r="BK28" s="25"/>
@@ -34253,13 +34257,17 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="119"/>
+      <c r="BE29" s="130"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>Croatia</v>
       </c>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="33"/>
+      <c r="BG29" s="32">
+        <v>2</v>
+      </c>
+      <c r="BH29" s="33">
+        <v>4</v>
+      </c>
       <c r="BI29" s="34"/>
       <c r="BJ29" s="25"/>
       <c r="BK29" s="25"/>
@@ -34419,7 +34427,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="118">
+      <c r="AY30" s="129">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34521,7 +34529,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="119"/>
+      <c r="AY31" s="130"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
@@ -34549,13 +34557,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="124" t="str">
+      <c r="BQ31" s="131" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="125"/>
-      <c r="BS31" s="125"/>
-      <c r="BT31" s="126"/>
+      <c r="BR31" s="132"/>
+      <c r="BS31" s="132"/>
+      <c r="BT31" s="133"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34739,21 +34747,21 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="118">
+      <c r="BK32" s="129">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
         <f>T71</f>
-        <v>W59</v>
+        <v>Croatia</v>
       </c>
       <c r="BM32" s="29"/>
       <c r="BN32" s="30"/>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="127"/>
-      <c r="BR32" s="128"/>
-      <c r="BS32" s="128"/>
-      <c r="BT32" s="129"/>
+      <c r="BQ32" s="134"/>
+      <c r="BR32" s="135"/>
+      <c r="BS32" s="135"/>
+      <c r="BT32" s="136"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34940,10 +34948,10 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="119"/>
+      <c r="BK33" s="130"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
-        <v>W60</v>
+        <v>England</v>
       </c>
       <c r="BM33" s="32"/>
       <c r="BN33" s="33"/>
@@ -35120,7 +35128,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="118">
+      <c r="AY34" s="129">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35319,7 +35327,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="119"/>
+      <c r="AY35" s="130"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>Switzerland</v>
@@ -35345,7 +35353,7 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="118">
+      <c r="BQ35" s="129">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
@@ -35507,14 +35515,16 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="118">
+      <c r="BE36" s="129">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
         <f>T64</f>
         <v>Sweden</v>
       </c>
-      <c r="BG36" s="29"/>
+      <c r="BG36" s="29">
+        <v>0</v>
+      </c>
       <c r="BH36" s="30"/>
       <c r="BI36" s="40"/>
       <c r="BJ36" s="25"/>
@@ -35524,7 +35534,7 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="119"/>
+      <c r="BQ36" s="130"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
         <v>L62</v>
@@ -35611,12 +35621,14 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="119"/>
+      <c r="BE37" s="130"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>England</v>
       </c>
-      <c r="BG37" s="32"/>
+      <c r="BG37" s="32">
+        <v>2</v>
+      </c>
       <c r="BH37" s="33"/>
       <c r="BI37" s="25"/>
       <c r="BJ37" s="25"/>
@@ -35801,7 +35813,7 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="118">
+      <c r="AY38" s="129">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -35999,7 +36011,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="119"/>
+      <c r="AY39" s="130"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>England</v>
@@ -36356,23 +36368,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="120" t="str">
+      <c r="BJ41" s="146" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="120"/>
-      <c r="BL41" s="120"/>
-      <c r="BM41" s="120"/>
-      <c r="BN41" s="120"/>
-      <c r="BO41" s="122" t="str">
+      <c r="BK41" s="146"/>
+      <c r="BL41" s="146"/>
+      <c r="BM41" s="146"/>
+      <c r="BN41" s="146"/>
+      <c r="BO41" s="148" t="str">
         <f>S85</f>
         <v/>
       </c>
-      <c r="BP41" s="122"/>
-      <c r="BQ41" s="122"/>
-      <c r="BR41" s="122"/>
-      <c r="BS41" s="122"/>
-      <c r="BT41" s="122"/>
+      <c r="BP41" s="148"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="148"/>
+      <c r="BS41" s="148"/>
+      <c r="BT41" s="148"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36520,17 +36532,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="121"/>
-      <c r="BK42" s="121"/>
-      <c r="BL42" s="121"/>
-      <c r="BM42" s="121"/>
-      <c r="BN42" s="121"/>
-      <c r="BO42" s="123"/>
-      <c r="BP42" s="123"/>
-      <c r="BQ42" s="123"/>
-      <c r="BR42" s="123"/>
-      <c r="BS42" s="123"/>
-      <c r="BT42" s="123"/>
+      <c r="BJ42" s="147"/>
+      <c r="BK42" s="147"/>
+      <c r="BL42" s="147"/>
+      <c r="BM42" s="147"/>
+      <c r="BN42" s="147"/>
+      <c r="BO42" s="149"/>
+      <c r="BP42" s="149"/>
+      <c r="BQ42" s="149"/>
+      <c r="BR42" s="149"/>
+      <c r="BS42" s="149"/>
+      <c r="BT42" s="149"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37112,12 +37124,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="109" t="s">
+      <c r="AY46" s="137" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="110"/>
-      <c r="BA46" s="110"/>
-      <c r="BB46" s="111"/>
+      <c r="AZ46" s="138"/>
+      <c r="BA46" s="138"/>
+      <c r="BB46" s="139"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37285,10 +37297,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="112"/>
-      <c r="AZ47" s="113"/>
-      <c r="BA47" s="113"/>
-      <c r="BB47" s="114"/>
+      <c r="AY47" s="140"/>
+      <c r="AZ47" s="141"/>
+      <c r="BA47" s="141"/>
+      <c r="BB47" s="142"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37436,10 +37448,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="112"/>
-      <c r="AZ48" s="113"/>
-      <c r="BA48" s="113"/>
-      <c r="BB48" s="114"/>
+      <c r="AY48" s="140"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="142"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37511,10 +37523,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-9</v>
       </c>
-      <c r="AY49" s="112"/>
-      <c r="AZ49" s="113"/>
-      <c r="BA49" s="113"/>
-      <c r="BB49" s="114"/>
+      <c r="AY49" s="140"/>
+      <c r="AZ49" s="141"/>
+      <c r="BA49" s="141"/>
+      <c r="BB49" s="142"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37686,10 +37698,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="112"/>
-      <c r="AZ50" s="113"/>
-      <c r="BA50" s="113"/>
-      <c r="BB50" s="114"/>
+      <c r="AY50" s="140"/>
+      <c r="AZ50" s="141"/>
+      <c r="BA50" s="141"/>
+      <c r="BB50" s="142"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37861,10 +37873,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="112"/>
-      <c r="AZ51" s="113"/>
-      <c r="BA51" s="113"/>
-      <c r="BB51" s="114"/>
+      <c r="AY51" s="140"/>
+      <c r="AZ51" s="141"/>
+      <c r="BA51" s="141"/>
+      <c r="BB51" s="142"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -38032,10 +38044,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="115"/>
-      <c r="AZ52" s="116"/>
-      <c r="BA52" s="116"/>
-      <c r="BB52" s="117"/>
+      <c r="AY52" s="143"/>
+      <c r="AZ52" s="144"/>
+      <c r="BA52" s="144"/>
+      <c r="BB52" s="145"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38529,11 +38541,11 @@
       </c>
       <c r="S71" s="65" t="str">
         <f>IF(OR(BG28="",BG29=""),"",IF(BG28&gt;BG29,BF28,IF(BG28&lt;BG29,BF29,IF(OR(BH28="",BH29=""),"draw",IF(BH28&gt;BH29,BF28,IF(BH28&lt;BH29,BF29,"draw"))))))</f>
-        <v/>
+        <v>Croatia</v>
       </c>
       <c r="T71" s="65" t="str">
         <f>IF(OR(S71="",S71="draw"),INDEX(T,96,lang),S71)</f>
-        <v>W59</v>
+        <v>Croatia</v>
       </c>
     </row>
     <row r="72" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38543,11 +38555,11 @@
       </c>
       <c r="S72" s="65" t="str">
         <f>IF(OR(BG36="",BG37=""),"",IF(BG36&gt;BG37,BF36,IF(BG36&lt;BG37,BF37,IF(OR(BH36="",BH37=""),"draw",IF(BH36&gt;BH37,BF36,IF(BH36&lt;BH37,BF37,"draw"))))))</f>
-        <v/>
+        <v>England</v>
       </c>
       <c r="T72" s="65" t="str">
         <f>IF(OR(S72="",S72="draw"),INDEX(T,97,lang),S72)</f>
-        <v>W60</v>
+        <v>England</v>
       </c>
     </row>
     <row r="73" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38632,27 +38644,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38660,6 +38651,27 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">

--- a/input/r16/world_cup_2018r16_final.xlsx
+++ b/input/r16/world_cup_2018r16_final.xlsx
@@ -9322,6 +9322,90 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -9400,90 +9484,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -29902,8 +29902,8 @@
   </sheetPr>
   <dimension ref="A1:BT97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="BH22" sqref="BH22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="BS36" sqref="BS36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29958,25 +29958,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="str">
+      <c r="A1" s="136" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>2018 World Cup Final Tournament Schedule</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
       <c r="S1" s="58"/>
       <c r="T1" s="58"/>
       <c r="U1" s="58"/>
@@ -30039,11 +30039,11 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="116" t="str">
+      <c r="O3" s="137" t="str">
         <f>"Language: " &amp; Settings!C4</f>
         <v>Language: English</v>
       </c>
-      <c r="P3" s="116"/>
+      <c r="P3" s="137"/>
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
@@ -30069,43 +30069,43 @@
     </row>
     <row r="4" spans="1:72" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="117" t="str">
+      <c r="A5" s="138" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
-      <c r="J5" s="123" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+      <c r="J5" s="144" t="s">
         <v>2174</v>
       </c>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="125"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="122"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="149"/>
       <c r="R6" s="58" t="s">
         <v>2175</v>
       </c>
@@ -30169,34 +30169,34 @@
       <c r="AT6" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="AY6" s="109" t="str">
+      <c r="AY6" s="130" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="111"/>
-      <c r="BE6" s="109" t="str">
+      <c r="AZ6" s="131"/>
+      <c r="BA6" s="131"/>
+      <c r="BB6" s="132"/>
+      <c r="BE6" s="130" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="111"/>
-      <c r="BK6" s="109" t="str">
+      <c r="BF6" s="131"/>
+      <c r="BG6" s="131"/>
+      <c r="BH6" s="132"/>
+      <c r="BK6" s="130" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="BL6" s="110"/>
-      <c r="BM6" s="110"/>
-      <c r="BN6" s="111"/>
-      <c r="BQ6" s="109" t="str">
+      <c r="BL6" s="131"/>
+      <c r="BM6" s="131"/>
+      <c r="BN6" s="132"/>
+      <c r="BQ6" s="130" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="BR6" s="110"/>
-      <c r="BS6" s="110"/>
-      <c r="BT6" s="111"/>
+      <c r="BR6" s="131"/>
+      <c r="BS6" s="131"/>
+      <c r="BT6" s="132"/>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
@@ -30260,22 +30260,22 @@
         <f>IF(OR(F7="",G7=""),"",IF(F7&gt;G7,1,IF(F7&lt;G7,-1,0)))</f>
         <v>1</v>
       </c>
-      <c r="AY7" s="112"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="113"/>
-      <c r="BB7" s="114"/>
-      <c r="BE7" s="112"/>
-      <c r="BF7" s="113"/>
-      <c r="BG7" s="113"/>
-      <c r="BH7" s="114"/>
-      <c r="BK7" s="112"/>
-      <c r="BL7" s="113"/>
-      <c r="BM7" s="113"/>
-      <c r="BN7" s="114"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="113"/>
-      <c r="BS7" s="113"/>
-      <c r="BT7" s="114"/>
+      <c r="AY7" s="133"/>
+      <c r="AZ7" s="134"/>
+      <c r="BA7" s="134"/>
+      <c r="BB7" s="135"/>
+      <c r="BE7" s="133"/>
+      <c r="BF7" s="134"/>
+      <c r="BG7" s="134"/>
+      <c r="BH7" s="135"/>
+      <c r="BK7" s="133"/>
+      <c r="BL7" s="134"/>
+      <c r="BM7" s="134"/>
+      <c r="BN7" s="135"/>
+      <c r="BQ7" s="133"/>
+      <c r="BR7" s="134"/>
+      <c r="BS7" s="134"/>
+      <c r="BT7" s="135"/>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -30821,7 +30821,7 @@
         <f>AR10-AS10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="129">
+      <c r="AY10" s="118">
         <v>49</v>
       </c>
       <c r="AZ10" s="28" t="str">
@@ -31017,7 +31017,7 @@
         <f>AR11-AS11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="130"/>
+      <c r="AY11" s="119"/>
       <c r="AZ11" s="31" t="str">
         <f>AO15</f>
         <v>Portugal</v>
@@ -31200,7 +31200,7 @@
       <c r="BB12" s="25"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="25"/>
-      <c r="BE12" s="129">
+      <c r="BE12" s="118">
         <v>57</v>
       </c>
       <c r="BF12" s="28" t="str">
@@ -31310,7 +31310,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="39"/>
-      <c r="BE13" s="130"/>
+      <c r="BE13" s="119"/>
       <c r="BF13" s="31" t="str">
         <f>T59</f>
         <v>France</v>
@@ -31502,7 +31502,7 @@
         <f>AR14-AS14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="129">
+      <c r="AY14" s="118">
         <v>50</v>
       </c>
       <c r="AZ14" s="28" t="str">
@@ -31702,7 +31702,7 @@
         <f>AR15-AS15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="130"/>
+      <c r="AY15" s="119"/>
       <c r="AZ15" s="31" t="str">
         <f>AO27</f>
         <v>Argentina</v>
@@ -31911,14 +31911,16 @@
       <c r="BH16" s="25"/>
       <c r="BI16" s="36"/>
       <c r="BJ16" s="25"/>
-      <c r="BK16" s="129">
+      <c r="BK16" s="118">
         <v>61</v>
       </c>
       <c r="BL16" s="28" t="str">
         <f>T69</f>
         <v>France</v>
       </c>
-      <c r="BM16" s="29"/>
+      <c r="BM16" s="29">
+        <v>1</v>
+      </c>
       <c r="BN16" s="30"/>
       <c r="BO16" s="25"/>
       <c r="BP16" s="41"/>
@@ -32108,12 +32110,14 @@
       <c r="BH17" s="25"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="39"/>
-      <c r="BK17" s="130"/>
+      <c r="BK17" s="119"/>
       <c r="BL17" s="31" t="str">
         <f>T70</f>
         <v>Belgium</v>
       </c>
-      <c r="BM17" s="32"/>
+      <c r="BM17" s="32">
+        <v>0</v>
+      </c>
       <c r="BN17" s="33"/>
       <c r="BO17" s="34"/>
       <c r="BP17" s="42"/>
@@ -32268,7 +32272,7 @@
         <f>MAX(AT14:AT17)-MIN(AT14:AT17)+1</f>
         <v>1</v>
       </c>
-      <c r="AY18" s="129">
+      <c r="AY18" s="118">
         <v>53</v>
       </c>
       <c r="AZ18" s="28" t="str">
@@ -32375,7 +32379,7 @@
         <f>MIN(AI14:AI17)</f>
         <v>-2</v>
       </c>
-      <c r="AY19" s="130"/>
+      <c r="AY19" s="119"/>
       <c r="AZ19" s="31" t="str">
         <f>AO39</f>
         <v>Mexico</v>
@@ -32582,7 +32586,7 @@
       <c r="BB20" s="25"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="25"/>
-      <c r="BE20" s="129">
+      <c r="BE20" s="118">
         <v>58</v>
       </c>
       <c r="BF20" s="28" t="str">
@@ -32785,7 +32789,7 @@
       <c r="BB21" s="35"/>
       <c r="BC21" s="36"/>
       <c r="BD21" s="39"/>
-      <c r="BE21" s="130"/>
+      <c r="BE21" s="119"/>
       <c r="BF21" s="31" t="str">
         <f>T63</f>
         <v>Belgium</v>
@@ -32973,7 +32977,7 @@
         <f>AR22-AS22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="129">
+      <c r="AY22" s="118">
         <v>54</v>
       </c>
       <c r="AZ22" s="28" t="str">
@@ -33172,7 +33176,7 @@
         <f>AR23-AS23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="130"/>
+      <c r="AY23" s="119"/>
       <c r="AZ23" s="31" t="str">
         <f>AO51</f>
         <v>Japan</v>
@@ -33195,14 +33199,16 @@
       <c r="BN23" s="25"/>
       <c r="BO23" s="36"/>
       <c r="BP23" s="25"/>
-      <c r="BQ23" s="129">
+      <c r="BQ23" s="118">
         <v>64</v>
       </c>
       <c r="BR23" s="28" t="str">
         <f>T76</f>
-        <v>W61</v>
-      </c>
-      <c r="BS23" s="29"/>
+        <v>France</v>
+      </c>
+      <c r="BS23" s="29">
+        <v>4</v>
+      </c>
       <c r="BT23" s="30"/>
     </row>
     <row r="24" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33368,12 +33374,14 @@
       <c r="BN24" s="25"/>
       <c r="BO24" s="36"/>
       <c r="BP24" s="39"/>
-      <c r="BQ24" s="130"/>
+      <c r="BQ24" s="119"/>
       <c r="BR24" s="31" t="str">
         <f>T77</f>
-        <v>W62</v>
-      </c>
-      <c r="BS24" s="32"/>
+        <v>Croatia</v>
+      </c>
+      <c r="BS24" s="32">
+        <v>2</v>
+      </c>
       <c r="BT24" s="33"/>
     </row>
     <row r="25" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -33649,7 +33657,7 @@
         <f>AR26-AS26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="129">
+      <c r="AY26" s="118">
         <v>51</v>
       </c>
       <c r="AZ26" s="28" t="str">
@@ -33851,7 +33859,7 @@
         <f>AR27-AS27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="130"/>
+      <c r="AY27" s="119"/>
       <c r="AZ27" s="31" t="str">
         <f>AO9</f>
         <v>Russia</v>
@@ -34056,7 +34064,7 @@
       <c r="BB28" s="25"/>
       <c r="BC28" s="36"/>
       <c r="BD28" s="25"/>
-      <c r="BE28" s="129">
+      <c r="BE28" s="118">
         <v>59</v>
       </c>
       <c r="BF28" s="28" t="str">
@@ -34257,7 +34265,7 @@
       <c r="BB29" s="35"/>
       <c r="BC29" s="36"/>
       <c r="BD29" s="39"/>
-      <c r="BE29" s="130"/>
+      <c r="BE29" s="119"/>
       <c r="BF29" s="31" t="str">
         <f>T61</f>
         <v>Croatia</v>
@@ -34427,7 +34435,7 @@
         <f>MAX(AT26:AT29)-MIN(AT26:AT29)+1</f>
         <v>1</v>
       </c>
-      <c r="AY30" s="129">
+      <c r="AY30" s="118">
         <v>52</v>
       </c>
       <c r="AZ30" s="28" t="str">
@@ -34529,7 +34537,7 @@
         <f>MIN(AI26:AI29)</f>
         <v>-3</v>
       </c>
-      <c r="AY31" s="130"/>
+      <c r="AY31" s="119"/>
       <c r="AZ31" s="31" t="str">
         <f>AO21</f>
         <v>Denmark</v>
@@ -34557,13 +34565,13 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="36"/>
       <c r="BP31" s="41"/>
-      <c r="BQ31" s="131" t="str">
+      <c r="BQ31" s="124" t="str">
         <f>INDEX(T,7,lang)</f>
         <v>Third-Place Play-Off</v>
       </c>
-      <c r="BR31" s="132"/>
-      <c r="BS31" s="132"/>
-      <c r="BT31" s="133"/>
+      <c r="BR31" s="125"/>
+      <c r="BS31" s="125"/>
+      <c r="BT31" s="126"/>
     </row>
     <row r="32" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
@@ -34747,21 +34755,25 @@
       <c r="BH32" s="25"/>
       <c r="BI32" s="36"/>
       <c r="BJ32" s="25"/>
-      <c r="BK32" s="129">
+      <c r="BK32" s="118">
         <v>62</v>
       </c>
       <c r="BL32" s="28" t="str">
         <f>T71</f>
         <v>Croatia</v>
       </c>
-      <c r="BM32" s="29"/>
-      <c r="BN32" s="30"/>
+      <c r="BM32" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="30">
+        <v>1</v>
+      </c>
       <c r="BO32" s="40"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="135"/>
-      <c r="BS32" s="135"/>
-      <c r="BT32" s="136"/>
+      <c r="BQ32" s="127"/>
+      <c r="BR32" s="128"/>
+      <c r="BS32" s="128"/>
+      <c r="BT32" s="129"/>
     </row>
     <row r="33" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
@@ -34948,13 +34960,17 @@
       <c r="BH33" s="25"/>
       <c r="BI33" s="36"/>
       <c r="BJ33" s="39"/>
-      <c r="BK33" s="130"/>
+      <c r="BK33" s="119"/>
       <c r="BL33" s="31" t="str">
         <f>T72</f>
         <v>England</v>
       </c>
-      <c r="BM33" s="32"/>
-      <c r="BN33" s="33"/>
+      <c r="BM33" s="32">
+        <v>1</v>
+      </c>
+      <c r="BN33" s="33">
+        <v>0</v>
+      </c>
       <c r="BO33" s="41"/>
       <c r="BP33" s="41"/>
       <c r="BQ33" s="25"/>
@@ -35128,7 +35144,7 @@
         <f>AR34-AS34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="129">
+      <c r="AY34" s="118">
         <v>55</v>
       </c>
       <c r="AZ34" s="28" t="str">
@@ -35327,7 +35343,7 @@
         <f>AR35-AS35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="130"/>
+      <c r="AY35" s="119"/>
       <c r="AZ35" s="31" t="str">
         <f>AO33</f>
         <v>Switzerland</v>
@@ -35353,14 +35369,16 @@
       <c r="BN35" s="25"/>
       <c r="BO35" s="25"/>
       <c r="BP35" s="25"/>
-      <c r="BQ35" s="129">
+      <c r="BQ35" s="118">
         <v>63</v>
       </c>
       <c r="BR35" s="28" t="str">
         <f>Z76</f>
-        <v>L61</v>
-      </c>
-      <c r="BS35" s="29"/>
+        <v>Belgium</v>
+      </c>
+      <c r="BS35" s="29">
+        <v>2</v>
+      </c>
       <c r="BT35" s="30"/>
     </row>
     <row r="36" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35515,7 +35533,7 @@
       <c r="BB36" s="25"/>
       <c r="BC36" s="36"/>
       <c r="BD36" s="25"/>
-      <c r="BE36" s="129">
+      <c r="BE36" s="118">
         <v>60</v>
       </c>
       <c r="BF36" s="28" t="str">
@@ -35534,12 +35552,14 @@
       <c r="BN36" s="25"/>
       <c r="BO36" s="25"/>
       <c r="BP36" s="25"/>
-      <c r="BQ36" s="130"/>
+      <c r="BQ36" s="119"/>
       <c r="BR36" s="31" t="str">
         <f>Z77</f>
-        <v>L62</v>
-      </c>
-      <c r="BS36" s="32"/>
+        <v>England</v>
+      </c>
+      <c r="BS36" s="32">
+        <v>0</v>
+      </c>
       <c r="BT36" s="33"/>
     </row>
     <row r="37" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35621,7 +35641,7 @@
       <c r="BB37" s="35"/>
       <c r="BC37" s="36"/>
       <c r="BD37" s="39"/>
-      <c r="BE37" s="130"/>
+      <c r="BE37" s="119"/>
       <c r="BF37" s="31" t="str">
         <f>T65</f>
         <v>England</v>
@@ -35813,7 +35833,7 @@
         <f>AR38-AS38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="129">
+      <c r="AY38" s="118">
         <v>56</v>
       </c>
       <c r="AZ38" s="28" t="str">
@@ -36011,7 +36031,7 @@
         <f>AR39-AS39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="130"/>
+      <c r="AY39" s="119"/>
       <c r="AZ39" s="31" t="str">
         <f>AO45</f>
         <v>England</v>
@@ -36368,23 +36388,23 @@
         <f>AR41-AS41</f>
         <v>0</v>
       </c>
-      <c r="BJ41" s="146" t="str">
+      <c r="BJ41" s="120" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>World Champion 2018</v>
       </c>
-      <c r="BK41" s="146"/>
-      <c r="BL41" s="146"/>
-      <c r="BM41" s="146"/>
-      <c r="BN41" s="146"/>
-      <c r="BO41" s="148" t="str">
+      <c r="BK41" s="120"/>
+      <c r="BL41" s="120"/>
+      <c r="BM41" s="120"/>
+      <c r="BN41" s="120"/>
+      <c r="BO41" s="122" t="str">
         <f>S85</f>
-        <v/>
-      </c>
-      <c r="BP41" s="148"/>
-      <c r="BQ41" s="148"/>
-      <c r="BR41" s="148"/>
-      <c r="BS41" s="148"/>
-      <c r="BT41" s="148"/>
+        <v>France</v>
+      </c>
+      <c r="BP41" s="122"/>
+      <c r="BQ41" s="122"/>
+      <c r="BR41" s="122"/>
+      <c r="BS41" s="122"/>
+      <c r="BT41" s="122"/>
     </row>
     <row r="42" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
@@ -36532,17 +36552,17 @@
         <f>MAX(AT38:AT41)-MIN(AT38:AT41)+1</f>
         <v>1</v>
       </c>
-      <c r="BJ42" s="147"/>
-      <c r="BK42" s="147"/>
-      <c r="BL42" s="147"/>
-      <c r="BM42" s="147"/>
-      <c r="BN42" s="147"/>
-      <c r="BO42" s="149"/>
-      <c r="BP42" s="149"/>
-      <c r="BQ42" s="149"/>
-      <c r="BR42" s="149"/>
-      <c r="BS42" s="149"/>
-      <c r="BT42" s="149"/>
+      <c r="BJ42" s="121"/>
+      <c r="BK42" s="121"/>
+      <c r="BL42" s="121"/>
+      <c r="BM42" s="121"/>
+      <c r="BN42" s="121"/>
+      <c r="BO42" s="123"/>
+      <c r="BP42" s="123"/>
+      <c r="BQ42" s="123"/>
+      <c r="BR42" s="123"/>
+      <c r="BS42" s="123"/>
+      <c r="BT42" s="123"/>
     </row>
     <row r="43" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
@@ -37124,12 +37144,12 @@
         <f>AR46-AS46</f>
         <v>0</v>
       </c>
-      <c r="AY46" s="137" t="s">
+      <c r="AY46" s="109" t="s">
         <v>2224</v>
       </c>
-      <c r="AZ46" s="138"/>
-      <c r="BA46" s="138"/>
-      <c r="BB46" s="139"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="111"/>
     </row>
     <row r="47" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
@@ -37297,10 +37317,10 @@
         <f>AR47-AS47</f>
         <v>0</v>
       </c>
-      <c r="AY47" s="140"/>
-      <c r="AZ47" s="141"/>
-      <c r="BA47" s="141"/>
-      <c r="BB47" s="142"/>
+      <c r="AY47" s="112"/>
+      <c r="AZ47" s="113"/>
+      <c r="BA47" s="113"/>
+      <c r="BB47" s="114"/>
     </row>
     <row r="48" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
@@ -37448,10 +37468,10 @@
         <f>MAX(AT44:AT47)-MIN(AT44:AT47)+1</f>
         <v>1</v>
       </c>
-      <c r="AY48" s="140"/>
-      <c r="AZ48" s="141"/>
-      <c r="BA48" s="141"/>
-      <c r="BB48" s="142"/>
+      <c r="AY48" s="112"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="114"/>
     </row>
     <row r="49" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
@@ -37523,10 +37543,10 @@
         <f>MIN(AI44:AI47)</f>
         <v>-9</v>
       </c>
-      <c r="AY49" s="140"/>
-      <c r="AZ49" s="141"/>
-      <c r="BA49" s="141"/>
-      <c r="BB49" s="142"/>
+      <c r="AY49" s="112"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="114"/>
     </row>
     <row r="50" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
@@ -37698,10 +37718,10 @@
         <f>AR50-AS50</f>
         <v>0</v>
       </c>
-      <c r="AY50" s="140"/>
-      <c r="AZ50" s="141"/>
-      <c r="BA50" s="141"/>
-      <c r="BB50" s="142"/>
+      <c r="AY50" s="112"/>
+      <c r="AZ50" s="113"/>
+      <c r="BA50" s="113"/>
+      <c r="BB50" s="114"/>
     </row>
     <row r="51" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
@@ -37873,10 +37893,10 @@
         <f>AR51-AS51</f>
         <v>0</v>
       </c>
-      <c r="AY51" s="140"/>
-      <c r="AZ51" s="141"/>
-      <c r="BA51" s="141"/>
-      <c r="BB51" s="142"/>
+      <c r="AY51" s="112"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="114"/>
     </row>
     <row r="52" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
@@ -38044,10 +38064,10 @@
         <f>AR52-AS52</f>
         <v>0</v>
       </c>
-      <c r="AY52" s="143"/>
-      <c r="AZ52" s="144"/>
-      <c r="BA52" s="144"/>
-      <c r="BB52" s="145"/>
+      <c r="AY52" s="115"/>
+      <c r="AZ52" s="116"/>
+      <c r="BA52" s="116"/>
+      <c r="BB52" s="117"/>
     </row>
     <row r="53" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
@@ -38572,19 +38592,19 @@
       </c>
       <c r="S76" s="65" t="str">
         <f>IF(OR(BM16="",BM17=""),"",IF(BM16&gt;BM17,BL16,IF(BM16&lt;BM17,BL17,IF(OR(BN16="",BN17=""),"draw",IF(BN16&gt;BN17,BL16,IF(BN16&lt;BN17,BL17,"draw"))))))</f>
-        <v/>
+        <v>France</v>
       </c>
       <c r="T76" s="65" t="str">
         <f>IF(OR(S76="",S76="draw"),INDEX(T,98,lang),S76)</f>
-        <v>W61</v>
+        <v>France</v>
       </c>
       <c r="U76" s="65" t="str">
         <f>IF(OR(BM16="",BM17=""),"",IF(BM16&lt;BM17,BL16,IF(BM16&gt;BM17,BL17,IF(OR(BN16="",BN17=""),"draw",IF(BN16&lt;BN17,BL16,IF(BN16&gt;BN17,BL17,"draw"))))))</f>
-        <v/>
+        <v>Belgium</v>
       </c>
       <c r="Z76" s="65" t="str">
         <f>IF(OR(U76="",U76="draw"),INDEX(T,100,lang),U76)</f>
-        <v>L61</v>
+        <v>Belgium</v>
       </c>
     </row>
     <row r="77" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -38594,19 +38614,19 @@
       </c>
       <c r="S77" s="65" t="str">
         <f>IF(OR(BM32="",BM33=""),"",IF(BM32&gt;BM33,BL32,IF(BM32&lt;BM33,BL33,IF(OR(BN32="",BN33=""),"draw",IF(BN32&gt;BN33,BL32,IF(BN32&lt;BN33,BL33,"draw"))))))</f>
-        <v/>
+        <v>Croatia</v>
       </c>
       <c r="T77" s="65" t="str">
         <f>IF(OR(S77="",S77="draw"),INDEX(T,99,lang),S77)</f>
-        <v>W62</v>
+        <v>Croatia</v>
       </c>
       <c r="U77" s="65" t="str">
         <f>IF(OR(BM32="",BM33=""),"",IF(BM32&lt;BM33,BL32,IF(BM32&gt;BM33,BL33,IF(OR(BN32="",BN33=""),"draw",IF(BN32&lt;BN33,BL32,IF(BN32&gt;BN33,BL33,"draw"))))))</f>
-        <v/>
+        <v>England</v>
       </c>
       <c r="Z77" s="65" t="str">
         <f>IF(OR(U77="",U77="draw"),INDEX(T,101,lang),U77)</f>
-        <v>L62</v>
+        <v>England</v>
       </c>
     </row>
     <row r="79" spans="18:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38618,7 +38638,7 @@
       </c>
       <c r="T81" s="65" t="str">
         <f>IF(OR(BS35="",BS36=""),"",IF(BS35&gt;BS36,BR35,IF(BS35&lt;BS36,BR36,IF(OR(BT35="",BT36=""),"",IF(BT35&gt;BT36,BR35,IF(BT35&lt;BT36,BR36,""))))))</f>
-        <v/>
+        <v>Belgium</v>
       </c>
     </row>
     <row r="83" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38630,11 +38650,11 @@
       </c>
       <c r="S85" s="65" t="str">
         <f>IF(OR(BS23="",BS24=""),"",IF(BS23&gt;BS24,BR23,IF(BS23&lt;BS24,BR24,IF(OR(BT23="",BT24=""),"",IF(BT23&gt;BT24,BR23,IF(BT23&lt;BT24,BR24,""))))))</f>
-        <v/>
+        <v>France</v>
       </c>
       <c r="T85" s="65" t="str">
         <f>S85</f>
-        <v/>
+        <v>France</v>
       </c>
     </row>
     <row r="87" spans="18:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -38644,6 +38664,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hexNDhodxxdoIYhe+LOVPFyB2v0aJLQphXCm5lZGwHDaP2ZITl3Lpck5mriyKWgCt8wrzYbwlizwv7dyeeElyw==" saltValue="swcCixFXOL0FnpwQehLBng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
+    <mergeCell ref="BQ6:BT7"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A5:H6"/>
+    <mergeCell ref="J5:P6"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="AY6:BB7"/>
+    <mergeCell ref="BE6:BH7"/>
+    <mergeCell ref="BK6:BN7"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BE20:BE21"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="AY30:AY31"/>
+    <mergeCell ref="BQ31:BT32"/>
+    <mergeCell ref="BK32:BK33"/>
+    <mergeCell ref="AY26:AY27"/>
+    <mergeCell ref="BE28:BE29"/>
     <mergeCell ref="AY46:BB52"/>
     <mergeCell ref="AY38:AY39"/>
     <mergeCell ref="BJ41:BN42"/>
@@ -38651,27 +38692,6 @@
     <mergeCell ref="BQ35:BQ36"/>
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="BO41:BT42"/>
-    <mergeCell ref="AY30:AY31"/>
-    <mergeCell ref="BQ31:BT32"/>
-    <mergeCell ref="BK32:BK33"/>
-    <mergeCell ref="AY26:AY27"/>
-    <mergeCell ref="BE28:BE29"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BE20:BE21"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="AY6:BB7"/>
-    <mergeCell ref="BE6:BH7"/>
-    <mergeCell ref="BK6:BN7"/>
-    <mergeCell ref="BQ6:BT7"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A5:H6"/>
-    <mergeCell ref="J5:P6"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="F7:F55">
